--- a/datos_mediacion.xlsx
+++ b/datos_mediacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mferrer\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86726463-D855-41DF-8183-311C14153528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D178F5B1-95AE-4320-B708-3882724D71B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6CEFD329-A649-41EA-AA68-8E4CB19A938E}"/>
+    <workbookView xWindow="10290" yWindow="120" windowWidth="10095" windowHeight="10290" xr2:uid="{6CEFD329-A649-41EA-AA68-8E4CB19A938E}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="listado de mediadores" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Inscripciones!$A$1:$O$620</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Inscripciones!$A$1:$O$677</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -12926,8 +12926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F0CCDE-3980-4C0F-BF1D-AF88A1F9D744}">
   <dimension ref="A1:N954"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="C542" sqref="C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27935,8 +27935,8 @@
       <c r="C540" s="7" t="s">
         <v>2108</v>
       </c>
-      <c r="D540" s="9">
-        <v>22</v>
+      <c r="D540" s="101">
+        <v>22349110</v>
       </c>
       <c r="E540" s="7"/>
       <c r="F540" s="9" t="s">
@@ -39577,12 +39577,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D800BA26-671B-4B74-B484-DDA3B7BFF925}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O694"/>
+  <dimension ref="A1:O688"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A614" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C621" sqref="C621"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F626" sqref="F626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -39705,7 +39704,7 @@
       </c>
       <c r="N3" s="45"/>
     </row>
-    <row r="4" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
         <v>27029721</v>
       </c>
@@ -39742,7 +39741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73">
         <v>13895152</v>
       </c>
@@ -39771,7 +39770,7 @@
       </c>
       <c r="N5" s="45"/>
     </row>
-    <row r="6" spans="1:14" s="44" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>31324025</v>
       </c>
@@ -39804,7 +39803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>28008080</v>
       </c>
@@ -39898,7 +39897,7 @@
       <c r="L9" s="45"/>
       <c r="N9" s="45"/>
     </row>
-    <row r="10" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>32768516</v>
       </c>
@@ -39929,7 +39928,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>28604599</v>
       </c>
@@ -39988,7 +39987,7 @@
       <c r="L12" s="45"/>
       <c r="N12" s="45"/>
     </row>
-    <row r="13" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>21390677</v>
       </c>
@@ -40017,7 +40016,7 @@
       </c>
       <c r="N13" s="45"/>
     </row>
-    <row r="14" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>3</v>
       </c>
@@ -40046,7 +40045,7 @@
       <c r="K14"/>
       <c r="N14" s="45"/>
     </row>
-    <row r="15" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="101">
         <v>13487177</v>
       </c>
@@ -40068,7 +40067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>30188205</v>
       </c>
@@ -40213,7 +40212,7 @@
       </c>
       <c r="N20" s="45"/>
     </row>
-    <row r="21" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
         <v>29915095</v>
       </c>
@@ -40241,7 +40240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
         <v>25102388</v>
       </c>
@@ -40273,7 +40272,7 @@
       </c>
       <c r="N22" s="45"/>
     </row>
-    <row r="23" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
         <v>32697454</v>
       </c>
@@ -40357,7 +40356,7 @@
       <c r="K25"/>
       <c r="N25" s="45"/>
     </row>
-    <row r="26" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="75">
         <v>20357976</v>
       </c>
@@ -40418,7 +40417,7 @@
       <c r="L27" s="45"/>
       <c r="N27" s="45"/>
     </row>
-    <row r="28" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="74">
         <v>20997422</v>
       </c>
@@ -40541,7 +40540,7 @@
       <c r="L31" s="45"/>
       <c r="N31" s="45"/>
     </row>
-    <row r="32" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="73">
         <v>16762475</v>
       </c>
@@ -40571,7 +40570,7 @@
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
     </row>
-    <row r="33" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="73" t="s">
         <v>3422</v>
       </c>
@@ -40626,7 +40625,7 @@
       <c r="K34"/>
       <c r="N34" s="45"/>
     </row>
-    <row r="35" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="73">
         <v>10319933</v>
       </c>
@@ -40657,7 +40656,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="73">
         <v>35441852</v>
       </c>
@@ -40714,7 +40713,7 @@
       <c r="K37"/>
       <c r="N37" s="45"/>
     </row>
-    <row r="38" spans="1:14" s="44" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="73">
         <v>24162980</v>
       </c>
@@ -40751,7 +40750,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="74">
         <v>30903942</v>
       </c>
@@ -40814,7 +40813,7 @@
       <c r="K40"/>
       <c r="N40" s="45"/>
     </row>
-    <row r="41" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="73">
         <v>23547698</v>
       </c>
@@ -40843,7 +40842,7 @@
       <c r="K41"/>
       <c r="N41" s="45"/>
     </row>
-    <row r="42" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="73">
         <v>32769369</v>
       </c>
@@ -40871,7 +40870,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="101">
         <v>28008506</v>
       </c>
@@ -40942,7 +40941,7 @@
       <c r="K45"/>
       <c r="N45" s="45"/>
     </row>
-    <row r="46" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="73">
         <v>24487508</v>
       </c>
@@ -41027,7 +41026,7 @@
       <c r="K48"/>
       <c r="N48" s="45"/>
     </row>
-    <row r="49" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="73">
         <v>35885184</v>
       </c>
@@ -41052,7 +41051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="73">
         <v>10135286</v>
       </c>
@@ -41081,7 +41080,7 @@
       <c r="K50"/>
       <c r="N50" s="45"/>
     </row>
-    <row r="51" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="73">
         <v>14921369</v>
       </c>
@@ -41110,7 +41109,7 @@
       <c r="K51"/>
       <c r="N51" s="45"/>
     </row>
-    <row r="52" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="74">
         <v>35283490</v>
       </c>
@@ -41209,7 +41208,7 @@
       <c r="K54"/>
       <c r="N54" s="45"/>
     </row>
-    <row r="55" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="73">
         <v>29134100</v>
       </c>
@@ -41244,7 +41243,7 @@
       </c>
       <c r="N55" s="45"/>
     </row>
-    <row r="56" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="73">
         <v>22560956</v>
       </c>
@@ -41299,7 +41298,7 @@
       <c r="K57"/>
       <c r="N57" s="45"/>
     </row>
-    <row r="58" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="73">
         <v>13664273</v>
       </c>
@@ -41328,7 +41327,7 @@
       <c r="K58"/>
       <c r="N58" s="45"/>
     </row>
-    <row r="59" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="73">
         <v>21563716</v>
       </c>
@@ -41414,7 +41413,7 @@
       <c r="K61"/>
       <c r="N61" s="45"/>
     </row>
-    <row r="62" spans="1:15" s="44" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="73">
         <v>23429767</v>
       </c>
@@ -41445,7 +41444,7 @@
       <c r="N62" s="47"/>
       <c r="O62" s="48"/>
     </row>
-    <row r="63" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="73">
         <v>28132202</v>
       </c>
@@ -41474,7 +41473,7 @@
       <c r="K63"/>
       <c r="N63" s="45"/>
     </row>
-    <row r="64" spans="1:15" s="44" customFormat="1" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="44" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A64" s="73">
         <v>37602950</v>
       </c>
@@ -41508,7 +41507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="73">
         <v>17017733</v>
       </c>
@@ -41565,7 +41564,7 @@
       <c r="K66"/>
       <c r="N66" s="45"/>
     </row>
-    <row r="67" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="73">
         <v>27679510</v>
       </c>
@@ -41655,7 +41654,7 @@
       <c r="K69"/>
       <c r="N69" s="45"/>
     </row>
-    <row r="70" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="73">
         <v>26182192</v>
       </c>
@@ -41681,7 +41680,7 @@
       <c r="K70"/>
       <c r="N70" s="45"/>
     </row>
-    <row r="71" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101">
         <v>5911229</v>
       </c>
@@ -41846,7 +41845,7 @@
       <c r="K76"/>
       <c r="N76" s="45"/>
     </row>
-    <row r="77" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="73">
         <v>29611264</v>
       </c>
@@ -41933,7 +41932,7 @@
       <c r="K79"/>
       <c r="N79" s="45"/>
     </row>
-    <row r="80" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="73">
         <v>26512125</v>
       </c>
@@ -42020,7 +42019,7 @@
       <c r="K82"/>
       <c r="N82" s="45"/>
     </row>
-    <row r="83" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="73">
         <v>7</v>
       </c>
@@ -42046,7 +42045,7 @@
       <c r="K83"/>
       <c r="N83" s="45"/>
     </row>
-    <row r="84" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="73">
         <v>9</v>
       </c>
@@ -42072,7 +42071,7 @@
       <c r="K84"/>
       <c r="N84" s="45"/>
     </row>
-    <row r="85" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="73">
         <v>28656513</v>
       </c>
@@ -42101,7 +42100,7 @@
       <c r="K85"/>
       <c r="N85" s="45"/>
     </row>
-    <row r="86" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="73">
         <v>26900337</v>
       </c>
@@ -42130,7 +42129,7 @@
       <c r="K86"/>
       <c r="N86" s="45"/>
     </row>
-    <row r="87" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="73">
         <v>21912660</v>
       </c>
@@ -42156,7 +42155,7 @@
       <c r="I87" s="47"/>
       <c r="K87"/>
     </row>
-    <row r="88" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="73">
         <v>27381119</v>
       </c>
@@ -42268,7 +42267,7 @@
       <c r="K91"/>
       <c r="N91" s="45"/>
     </row>
-    <row r="92" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="73">
         <v>30786698</v>
       </c>
@@ -42297,7 +42296,7 @@
       <c r="K92"/>
       <c r="N92" s="45"/>
     </row>
-    <row r="93" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="73">
         <v>25702937</v>
       </c>
@@ -42331,7 +42330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="73">
         <v>24033086</v>
       </c>
@@ -42360,7 +42359,7 @@
       <c r="K94"/>
       <c r="N94" s="45"/>
     </row>
-    <row r="95" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="73">
         <v>30128687</v>
       </c>
@@ -42386,7 +42385,7 @@
       <c r="K95"/>
       <c r="N95" s="45"/>
     </row>
-    <row r="96" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="73">
         <v>22123609</v>
       </c>
@@ -42438,7 +42437,7 @@
       <c r="K97"/>
       <c r="N97" s="45"/>
     </row>
-    <row r="98" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="74">
         <v>21784786</v>
       </c>
@@ -42473,7 +42472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="73">
         <v>16198378</v>
       </c>
@@ -42502,7 +42501,7 @@
       <c r="K99"/>
       <c r="N99" s="45"/>
     </row>
-    <row r="100" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="73">
         <v>30068261</v>
       </c>
@@ -42525,7 +42524,7 @@
       <c r="K100"/>
       <c r="L100" s="52"/>
     </row>
-    <row r="101" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="73">
         <v>29608360</v>
       </c>
@@ -42665,7 +42664,7 @@
       <c r="K105"/>
       <c r="N105" s="45"/>
     </row>
-    <row r="106" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="73">
         <v>34978749</v>
       </c>
@@ -42693,7 +42692,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="73">
         <v>18628744</v>
       </c>
@@ -42722,7 +42721,7 @@
       <c r="K107"/>
       <c r="N107" s="45"/>
     </row>
-    <row r="108" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="101">
         <v>28008269</v>
       </c>
@@ -42773,7 +42772,7 @@
       <c r="K109"/>
       <c r="N109" s="45"/>
     </row>
-    <row r="110" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="73">
         <v>32075187</v>
       </c>
@@ -42802,7 +42801,7 @@
       <c r="K110"/>
       <c r="N110" s="45"/>
     </row>
-    <row r="111" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="101">
         <v>31369883</v>
       </c>
@@ -42850,7 +42849,7 @@
       <c r="K112"/>
       <c r="N112" s="45"/>
     </row>
-    <row r="113" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="101">
         <v>18261187</v>
       </c>
@@ -42895,7 +42894,7 @@
       <c r="K114"/>
       <c r="N114" s="45"/>
     </row>
-    <row r="115" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="73">
         <v>31615669</v>
       </c>
@@ -42924,7 +42923,7 @@
       <c r="K115"/>
       <c r="N115" s="45"/>
     </row>
-    <row r="116" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="73">
         <v>21938641</v>
       </c>
@@ -42952,7 +42951,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="73">
         <v>14538006</v>
       </c>
@@ -43007,7 +43006,7 @@
       <c r="K118"/>
       <c r="N118" s="45"/>
     </row>
-    <row r="119" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="73">
         <v>29652373</v>
       </c>
@@ -43036,7 +43035,7 @@
       </c>
       <c r="N119" s="47"/>
     </row>
-    <row r="120" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="73">
         <v>26974816</v>
       </c>
@@ -43094,7 +43093,7 @@
       <c r="K121"/>
       <c r="N121" s="45"/>
     </row>
-    <row r="122" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="73">
         <v>31286575</v>
       </c>
@@ -43125,7 +43124,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="73">
         <v>23033367</v>
       </c>
@@ -43154,7 +43153,7 @@
       <c r="K123"/>
       <c r="N123" s="45"/>
     </row>
-    <row r="124" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="74">
         <v>29568060</v>
       </c>
@@ -43191,7 +43190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="44" customFormat="1" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="44" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A125" s="74">
         <v>29151040</v>
       </c>
@@ -43228,7 +43227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="73">
         <v>28122069</v>
       </c>
@@ -43257,7 +43256,7 @@
       <c r="K126"/>
       <c r="N126" s="45"/>
     </row>
-    <row r="127" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="73">
         <v>20702317</v>
       </c>
@@ -43287,7 +43286,7 @@
       <c r="M127" s="47"/>
       <c r="N127" s="47"/>
     </row>
-    <row r="128" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="73">
         <v>29771611</v>
       </c>
@@ -43317,7 +43316,7 @@
       <c r="M128" s="47"/>
       <c r="N128" s="47"/>
     </row>
-    <row r="129" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="73">
         <v>34779352</v>
       </c>
@@ -43427,7 +43426,7 @@
       <c r="K132"/>
       <c r="N132" s="45"/>
     </row>
-    <row r="133" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="74">
         <v>29767948</v>
       </c>
@@ -43456,7 +43455,7 @@
       <c r="K133"/>
       <c r="N133" s="45"/>
     </row>
-    <row r="134" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="73">
         <v>8</v>
       </c>
@@ -43512,7 +43511,7 @@
       <c r="L135" s="45"/>
       <c r="N135" s="45"/>
     </row>
-    <row r="136" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="73">
         <v>21612580</v>
       </c>
@@ -43542,7 +43541,7 @@
       <c r="M136" s="47"/>
       <c r="N136" s="47"/>
     </row>
-    <row r="137" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="73">
         <v>30860262</v>
       </c>
@@ -43600,7 +43599,7 @@
       <c r="K138"/>
       <c r="N138" s="45"/>
     </row>
-    <row r="139" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="73">
         <v>26649612</v>
       </c>
@@ -43655,7 +43654,7 @@
       <c r="K140"/>
       <c r="N140" s="45"/>
     </row>
-    <row r="141" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="73">
         <v>33484307</v>
       </c>
@@ -43680,7 +43679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="73">
         <v>19012824</v>
       </c>
@@ -43710,7 +43709,7 @@
       <c r="M142" s="47"/>
       <c r="N142" s="47"/>
     </row>
-    <row r="143" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="73" t="s">
         <v>3421</v>
       </c>
@@ -43765,7 +43764,7 @@
       <c r="K144"/>
       <c r="N144" s="45"/>
     </row>
-    <row r="145" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="73">
         <v>10</v>
       </c>
@@ -43846,7 +43845,7 @@
       <c r="K147"/>
       <c r="N147" s="45"/>
     </row>
-    <row r="148" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="73">
         <v>17509280</v>
       </c>
@@ -43875,7 +43874,7 @@
       </c>
       <c r="N148" s="47"/>
     </row>
-    <row r="149" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="101">
         <v>35356392</v>
       </c>
@@ -43923,7 +43922,7 @@
       <c r="K150"/>
       <c r="N150" s="45"/>
     </row>
-    <row r="151" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="73">
         <v>34375976</v>
       </c>
@@ -43952,7 +43951,7 @@
       <c r="K151"/>
       <c r="N151" s="45"/>
     </row>
-    <row r="152" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="73">
         <v>27528432</v>
       </c>
@@ -43971,7 +43970,7 @@
       <c r="H152" s="82"/>
       <c r="K152"/>
     </row>
-    <row r="153" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="73">
         <v>16628974</v>
       </c>
@@ -44000,7 +43999,7 @@
       <c r="K153"/>
       <c r="N153" s="45"/>
     </row>
-    <row r="154" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="73">
         <v>24867430</v>
       </c>
@@ -44028,7 +44027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="73">
         <v>28008375</v>
       </c>
@@ -44057,7 +44056,7 @@
       <c r="K155"/>
       <c r="N155" s="45"/>
     </row>
-    <row r="156" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="101">
         <v>17195366</v>
       </c>
@@ -44105,7 +44104,7 @@
       <c r="K157"/>
       <c r="N157" s="45"/>
     </row>
-    <row r="158" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="74">
         <v>32769721</v>
       </c>
@@ -44196,7 +44195,7 @@
       <c r="L160" s="45"/>
       <c r="N160" s="45"/>
     </row>
-    <row r="161" spans="1:14" s="44" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A161" s="74">
         <v>27144240</v>
       </c>
@@ -44233,7 +44232,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="162" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="74">
         <v>29718104</v>
       </c>
@@ -44268,7 +44267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="73">
         <v>24752295</v>
       </c>
@@ -44326,7 +44325,7 @@
       <c r="K164"/>
       <c r="N164" s="45"/>
     </row>
-    <row r="165" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="103">
         <v>31144679</v>
       </c>
@@ -44345,7 +44344,7 @@
       <c r="H165" s="82"/>
       <c r="K165"/>
     </row>
-    <row r="166" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="73">
         <v>16014562</v>
       </c>
@@ -44400,7 +44399,7 @@
       <c r="K167"/>
       <c r="N167" s="45"/>
     </row>
-    <row r="168" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="74">
         <v>14307495</v>
       </c>
@@ -44465,7 +44464,7 @@
       <c r="L169" s="45"/>
       <c r="N169" s="45"/>
     </row>
-    <row r="170" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="73">
         <v>24706317</v>
       </c>
@@ -44487,7 +44486,7 @@
       <c r="H170" s="82"/>
       <c r="K170"/>
     </row>
-    <row r="171" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="73">
         <v>21569002</v>
       </c>
@@ -44516,7 +44515,7 @@
       </c>
       <c r="N171" s="47"/>
     </row>
-    <row r="172" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="73">
         <v>29568075</v>
       </c>
@@ -44550,7 +44549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="73">
         <v>7641209</v>
       </c>
@@ -44579,7 +44578,7 @@
       <c r="K173"/>
       <c r="N173" s="45"/>
     </row>
-    <row r="174" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="73">
         <v>23675728</v>
       </c>
@@ -44627,7 +44626,7 @@
       <c r="K175"/>
       <c r="N175" s="45"/>
     </row>
-    <row r="176" spans="1:14" s="44" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="44" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A176" s="73">
         <v>31729750</v>
       </c>
@@ -44686,7 +44685,7 @@
       <c r="K177"/>
       <c r="N177" s="45"/>
     </row>
-    <row r="178" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="73">
         <v>18096463</v>
       </c>
@@ -44712,7 +44711,7 @@
       <c r="K178"/>
       <c r="N178" s="47"/>
     </row>
-    <row r="179" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="73">
         <v>18515480</v>
       </c>
@@ -44741,7 +44740,7 @@
       </c>
       <c r="N179" s="47"/>
     </row>
-    <row r="180" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="73">
         <v>38785330</v>
       </c>
@@ -44772,7 +44771,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="181" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="73">
         <v>13313886</v>
       </c>
@@ -44801,7 +44800,7 @@
       <c r="K181"/>
       <c r="N181" s="45"/>
     </row>
-    <row r="182" spans="1:15" s="44" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="74">
         <v>22181932</v>
       </c>
@@ -44836,7 +44835,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="73">
         <v>17893114</v>
       </c>
@@ -44867,7 +44866,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="184" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="74">
         <v>36138492</v>
       </c>
@@ -44904,7 +44903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:15" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="73">
         <v>23273700</v>
       </c>
@@ -44964,7 +44963,7 @@
       <c r="L186" s="45"/>
       <c r="N186" s="45"/>
     </row>
-    <row r="187" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="74">
         <v>30384361</v>
       </c>
@@ -44998,7 +44997,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="188" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="74">
         <v>32473766</v>
       </c>
@@ -45033,7 +45032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="189" spans="1:15" s="44" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" s="44" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" s="74">
         <v>25261729</v>
       </c>
@@ -45070,7 +45069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:15" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="74">
         <v>29431337</v>
       </c>
@@ -45131,7 +45130,7 @@
       <c r="K191"/>
       <c r="N191" s="45"/>
     </row>
-    <row r="192" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="102">
         <v>22678491</v>
       </c>
@@ -45205,7 +45204,7 @@
       <c r="K194"/>
       <c r="N194" s="45"/>
     </row>
-    <row r="195" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="73">
         <v>24772545</v>
       </c>
@@ -45231,7 +45230,7 @@
       <c r="K195"/>
       <c r="N195" s="45"/>
     </row>
-    <row r="196" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="102">
         <v>29229878</v>
       </c>
@@ -45549,7 +45548,7 @@
       <c r="L207" s="56"/>
       <c r="N207" s="45"/>
     </row>
-    <row r="208" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="76">
         <v>23215094</v>
       </c>
@@ -45577,7 +45576,7 @@
       <c r="L208" s="55"/>
       <c r="N208" s="45"/>
     </row>
-    <row r="209" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="76">
         <v>27029721</v>
       </c>
@@ -45604,7 +45603,7 @@
       <c r="L209" s="54"/>
       <c r="N209" s="45"/>
     </row>
-    <row r="210" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="76">
         <v>13895152</v>
       </c>
@@ -45631,7 +45630,7 @@
       <c r="L210" s="54"/>
       <c r="N210" s="45"/>
     </row>
-    <row r="211" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="76">
         <v>25461574</v>
       </c>
@@ -45658,7 +45657,7 @@
       <c r="L211" s="54"/>
       <c r="N211" s="45"/>
     </row>
-    <row r="212" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="76">
         <v>17676440</v>
       </c>
@@ -45685,7 +45684,7 @@
       <c r="L212" s="54"/>
       <c r="N212" s="45"/>
     </row>
-    <row r="213" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="76">
         <v>18261187</v>
       </c>
@@ -45712,7 +45711,7 @@
       <c r="L213" s="54"/>
       <c r="N213" s="45"/>
     </row>
-    <row r="214" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="76">
         <v>23633314</v>
       </c>
@@ -45739,7 +45738,7 @@
       <c r="L214" s="54"/>
       <c r="N214" s="45"/>
     </row>
-    <row r="215" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="76">
         <v>20460607</v>
       </c>
@@ -45766,7 +45765,7 @@
       <c r="L215" s="54"/>
       <c r="N215" s="45"/>
     </row>
-    <row r="216" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="76">
         <v>11635290</v>
       </c>
@@ -45793,7 +45792,7 @@
       <c r="L216" s="54"/>
       <c r="N216" s="45"/>
     </row>
-    <row r="217" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="44" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="76">
         <v>25843135</v>
       </c>
@@ -45820,7 +45819,7 @@
       <c r="L217" s="54"/>
       <c r="N217" s="45"/>
     </row>
-    <row r="218" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="76">
         <v>16741204</v>
       </c>
@@ -45847,7 +45846,7 @@
       <c r="L218" s="54"/>
       <c r="N218" s="45"/>
     </row>
-    <row r="219" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="76">
         <v>23939778</v>
       </c>
@@ -45874,7 +45873,7 @@
       <c r="L219" s="54"/>
       <c r="N219" s="45"/>
     </row>
-    <row r="220" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="76">
         <v>23994796</v>
       </c>
@@ -45901,7 +45900,7 @@
       <c r="L220" s="54"/>
       <c r="N220" s="45"/>
     </row>
-    <row r="221" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="76">
         <v>28604802</v>
       </c>
@@ -45928,7 +45927,7 @@
       <c r="L221" s="55"/>
       <c r="N221" s="45"/>
     </row>
-    <row r="222" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="76">
         <v>31324025</v>
       </c>
@@ -45955,7 +45954,7 @@
       <c r="L222" s="54"/>
       <c r="N222" s="45"/>
     </row>
-    <row r="223" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="76">
         <v>23663509</v>
       </c>
@@ -45982,7 +45981,7 @@
       <c r="L223" s="54"/>
       <c r="N223" s="45"/>
     </row>
-    <row r="224" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="76">
         <v>17701669</v>
       </c>
@@ -46009,7 +46008,7 @@
       <c r="L224" s="54"/>
       <c r="N224" s="45"/>
     </row>
-    <row r="225" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="76">
         <v>10372998</v>
       </c>
@@ -46036,7 +46035,7 @@
       <c r="L225" s="54"/>
       <c r="N225" s="45"/>
     </row>
-    <row r="226" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="76">
         <v>16540451</v>
       </c>
@@ -46063,7 +46062,7 @@
       <c r="L226" s="54"/>
       <c r="N226" s="45"/>
     </row>
-    <row r="227" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="76">
         <v>17509280</v>
       </c>
@@ -46090,7 +46089,7 @@
       <c r="L227" s="54"/>
       <c r="N227" s="45"/>
     </row>
-    <row r="228" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="76">
         <v>17478580</v>
       </c>
@@ -46117,7 +46116,7 @@
       <c r="L228" s="54"/>
       <c r="N228" s="45"/>
     </row>
-    <row r="229" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="76">
         <v>25361927</v>
       </c>
@@ -46144,7 +46143,7 @@
       <c r="L229" s="54"/>
       <c r="N229" s="45"/>
     </row>
-    <row r="230" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="76">
         <v>31729750</v>
       </c>
@@ -46171,7 +46170,7 @@
       <c r="L230" s="54"/>
       <c r="N230" s="45"/>
     </row>
-    <row r="231" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="76">
         <v>18096463</v>
       </c>
@@ -46198,7 +46197,7 @@
       <c r="L231" s="54"/>
       <c r="N231" s="45"/>
     </row>
-    <row r="232" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="76">
         <v>30025669</v>
       </c>
@@ -46225,7 +46224,7 @@
       <c r="L232" s="54"/>
       <c r="N232" s="45"/>
     </row>
-    <row r="233" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="76">
         <v>31473008</v>
       </c>
@@ -46252,7 +46251,7 @@
       <c r="L233" s="54"/>
       <c r="N233" s="45"/>
     </row>
-    <row r="234" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="76">
         <v>26294104</v>
       </c>
@@ -46279,7 +46278,7 @@
       <c r="L234" s="55"/>
       <c r="N234" s="45"/>
     </row>
-    <row r="235" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="76">
         <v>27029721</v>
       </c>
@@ -46306,7 +46305,7 @@
       <c r="L235" s="54"/>
       <c r="N235" s="45"/>
     </row>
-    <row r="236" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="76">
         <v>13895152</v>
       </c>
@@ -46333,7 +46332,7 @@
       <c r="L236" s="54"/>
       <c r="N236" s="45"/>
     </row>
-    <row r="237" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="76">
         <v>25461574</v>
       </c>
@@ -46360,7 +46359,7 @@
       <c r="L237" s="54"/>
       <c r="N237" s="45"/>
     </row>
-    <row r="238" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="76">
         <v>17676440</v>
       </c>
@@ -46387,7 +46386,7 @@
       <c r="L238" s="54"/>
       <c r="N238" s="45"/>
     </row>
-    <row r="239" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="76">
         <v>18261187</v>
       </c>
@@ -46414,7 +46413,7 @@
       <c r="L239" s="54"/>
       <c r="N239" s="45"/>
     </row>
-    <row r="240" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="76">
         <v>23633314</v>
       </c>
@@ -46441,7 +46440,7 @@
       <c r="L240" s="54"/>
       <c r="N240" s="45"/>
     </row>
-    <row r="241" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="76">
         <v>20460607</v>
       </c>
@@ -46468,7 +46467,7 @@
       <c r="L241" s="54"/>
       <c r="N241" s="45"/>
     </row>
-    <row r="242" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="76">
         <v>11635290</v>
       </c>
@@ -46495,7 +46494,7 @@
       <c r="L242" s="54"/>
       <c r="N242" s="45"/>
     </row>
-    <row r="243" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="44" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="76">
         <v>25843135</v>
       </c>
@@ -46522,7 +46521,7 @@
       <c r="L243" s="54"/>
       <c r="N243" s="45"/>
     </row>
-    <row r="244" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="76">
         <v>16741204</v>
       </c>
@@ -46549,7 +46548,7 @@
       <c r="L244" s="54"/>
       <c r="N244" s="45"/>
     </row>
-    <row r="245" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="76">
         <v>23939778</v>
       </c>
@@ -46576,7 +46575,7 @@
       <c r="L245" s="54"/>
       <c r="N245" s="45"/>
     </row>
-    <row r="246" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="76">
         <v>23994796</v>
       </c>
@@ -46603,7 +46602,7 @@
       <c r="L246" s="54"/>
       <c r="N246" s="45"/>
     </row>
-    <row r="247" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="76">
         <v>28604802</v>
       </c>
@@ -46630,7 +46629,7 @@
       <c r="L247" s="55"/>
       <c r="N247" s="45"/>
     </row>
-    <row r="248" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="76">
         <v>28165359</v>
       </c>
@@ -46657,7 +46656,7 @@
       <c r="L248" s="54"/>
       <c r="N248" s="45"/>
     </row>
-    <row r="249" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="76">
         <v>20367056</v>
       </c>
@@ -46684,7 +46683,7 @@
       <c r="L249" s="54"/>
       <c r="N249" s="45"/>
     </row>
-    <row r="250" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="76">
         <v>17701669</v>
       </c>
@@ -46711,7 +46710,7 @@
       <c r="L250" s="54"/>
       <c r="N250" s="45"/>
     </row>
-    <row r="251" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="76">
         <v>22801464</v>
       </c>
@@ -46738,7 +46737,7 @@
       <c r="L251" s="54"/>
       <c r="N251" s="45"/>
     </row>
-    <row r="252" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="76">
         <v>16540451</v>
       </c>
@@ -46765,7 +46764,7 @@
       <c r="L252" s="54"/>
       <c r="N252" s="45"/>
     </row>
-    <row r="253" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="76">
         <v>21551036</v>
       </c>
@@ -46792,7 +46791,7 @@
       <c r="L253" s="54"/>
       <c r="N253" s="45"/>
     </row>
-    <row r="254" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="76">
         <v>17509280</v>
       </c>
@@ -46819,7 +46818,7 @@
       <c r="L254" s="54"/>
       <c r="N254" s="45"/>
     </row>
-    <row r="255" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="76">
         <v>18096463</v>
       </c>
@@ -46846,7 +46845,7 @@
       <c r="L255" s="54"/>
       <c r="N255" s="45"/>
     </row>
-    <row r="256" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="76">
         <v>23264899</v>
       </c>
@@ -46873,7 +46872,7 @@
       <c r="L256" s="54"/>
       <c r="N256" s="45"/>
     </row>
-    <row r="257" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="76">
         <v>23221631</v>
       </c>
@@ -46900,7 +46899,7 @@
       <c r="L257" s="54"/>
       <c r="N257" s="45"/>
     </row>
-    <row r="258" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="76">
         <v>29072860</v>
       </c>
@@ -46927,7 +46926,7 @@
       <c r="L258" s="54"/>
       <c r="N258" s="45"/>
     </row>
-    <row r="259" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="76">
         <v>14320253</v>
       </c>
@@ -46954,7 +46953,7 @@
       <c r="L259" s="54"/>
       <c r="N259" s="45"/>
     </row>
-    <row r="260" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="76">
         <v>23311330</v>
       </c>
@@ -46978,7 +46977,7 @@
       <c r="L260" s="54"/>
       <c r="N260" s="45"/>
     </row>
-    <row r="261" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="76">
         <v>17784441</v>
       </c>
@@ -47002,7 +47001,7 @@
       <c r="L261" s="54"/>
       <c r="N261" s="45"/>
     </row>
-    <row r="262" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="76">
         <v>24983838</v>
       </c>
@@ -47026,7 +47025,7 @@
       <c r="L262" s="55"/>
       <c r="N262" s="45"/>
     </row>
-    <row r="263" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="73">
         <v>16443600</v>
       </c>
@@ -47057,7 +47056,7 @@
       <c r="L263" s="46"/>
       <c r="N263" s="45"/>
     </row>
-    <row r="264" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="73">
         <v>23534675</v>
       </c>
@@ -47117,7 +47116,7 @@
       <c r="L265" s="46"/>
       <c r="N265" s="45"/>
     </row>
-    <row r="266" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="73">
         <v>17200370</v>
       </c>
@@ -47148,7 +47147,7 @@
       <c r="L266" s="46"/>
       <c r="N266" s="45"/>
     </row>
-    <row r="267" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="73">
         <v>33474864</v>
       </c>
@@ -47212,7 +47211,7 @@
       <c r="N268" s="58"/>
       <c r="O268" s="57"/>
     </row>
-    <row r="269" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="73">
         <v>4</v>
       </c>
@@ -47243,7 +47242,7 @@
       <c r="N269" s="58"/>
       <c r="O269" s="57"/>
     </row>
-    <row r="270" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="73">
         <v>16176376</v>
       </c>
@@ -47276,7 +47275,7 @@
       <c r="N270" s="58"/>
       <c r="O270" s="57"/>
     </row>
-    <row r="271" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="73">
         <v>27491943</v>
       </c>
@@ -47305,7 +47304,7 @@
       <c r="L271" s="46"/>
       <c r="N271" s="45"/>
     </row>
-    <row r="272" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="73">
         <v>25209665</v>
       </c>
@@ -47398,7 +47397,7 @@
       <c r="L274" s="46"/>
       <c r="N274" s="45"/>
     </row>
-    <row r="275" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="73">
         <v>34674714</v>
       </c>
@@ -47428,7 +47427,7 @@
       </c>
       <c r="N275" s="57"/>
     </row>
-    <row r="276" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="73">
         <v>12401107</v>
       </c>
@@ -47457,7 +47456,7 @@
       <c r="L276" s="46"/>
       <c r="N276" s="58"/>
     </row>
-    <row r="277" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="73">
         <v>28701043</v>
       </c>
@@ -47521,7 +47520,7 @@
       <c r="M278" s="57"/>
       <c r="N278" s="58"/>
     </row>
-    <row r="279" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="73">
         <v>31924110</v>
       </c>
@@ -47553,7 +47552,7 @@
       <c r="M279" s="57"/>
       <c r="N279" s="57"/>
     </row>
-    <row r="280" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="73">
         <v>30566413</v>
       </c>
@@ -47585,7 +47584,7 @@
       <c r="M280" s="57"/>
       <c r="N280" s="57"/>
     </row>
-    <row r="281" spans="1:15" s="44" customFormat="1" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" s="44" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="73">
         <v>16444190</v>
       </c>
@@ -47618,7 +47617,7 @@
       <c r="N281" s="61"/>
       <c r="O281" s="48"/>
     </row>
-    <row r="282" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="101">
         <v>25569792</v>
       </c>
@@ -47649,7 +47648,7 @@
       <c r="L282" s="46"/>
       <c r="N282" s="58"/>
     </row>
-    <row r="283" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="73">
         <v>31915617</v>
       </c>
@@ -47709,7 +47708,7 @@
       <c r="L284" s="57"/>
       <c r="N284" s="58"/>
     </row>
-    <row r="285" spans="1:15" s="44" customFormat="1" ht="195.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" s="44" customFormat="1" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="74">
         <v>29878593</v>
       </c>
@@ -47866,7 +47865,7 @@
       <c r="L289" s="57"/>
       <c r="N289" s="45"/>
     </row>
-    <row r="290" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="73">
         <v>22320812</v>
       </c>
@@ -47895,7 +47894,7 @@
       </c>
       <c r="N290" s="47"/>
     </row>
-    <row r="291" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="73">
         <v>22366121</v>
       </c>
@@ -47981,7 +47980,7 @@
       <c r="L293" s="57"/>
       <c r="N293" s="45"/>
     </row>
-    <row r="294" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="73">
         <v>30384347</v>
       </c>
@@ -48016,7 +48015,7 @@
       </c>
       <c r="N294" s="45"/>
     </row>
-    <row r="295" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="73">
         <v>38407096</v>
       </c>
@@ -48108,7 +48107,7 @@
       <c r="L297" s="57"/>
       <c r="N297" s="45"/>
     </row>
-    <row r="298" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="73">
         <v>30647120</v>
       </c>
@@ -48195,7 +48194,7 @@
       <c r="L300" s="57"/>
       <c r="N300" s="45"/>
     </row>
-    <row r="301" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="73">
         <v>34222510</v>
       </c>
@@ -48223,7 +48222,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="302" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="73">
         <v>32306544</v>
       </c>
@@ -48254,7 +48253,7 @@
       <c r="N302" s="46"/>
       <c r="O302" s="46"/>
     </row>
-    <row r="303" spans="1:15" s="44" customFormat="1" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" s="44" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="73">
         <v>30564918</v>
       </c>
@@ -48285,7 +48284,7 @@
       <c r="N303" s="46"/>
       <c r="O303" s="46"/>
     </row>
-    <row r="304" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="73">
         <v>13575738</v>
       </c>
@@ -48317,7 +48316,7 @@
       <c r="N304" s="42"/>
       <c r="O304" s="46"/>
     </row>
-    <row r="305" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="73">
         <v>12</v>
       </c>
@@ -48341,7 +48340,7 @@
       <c r="N305" s="46"/>
       <c r="O305" s="46"/>
     </row>
-    <row r="306" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="73">
         <v>20469434</v>
       </c>
@@ -48371,7 +48370,7 @@
       <c r="N306" s="42"/>
       <c r="O306" s="46"/>
     </row>
-    <row r="307" spans="1:15" ht="40.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="108" t="s">
         <v>3112</v>
       </c>
@@ -48407,7 +48406,7 @@
       <c r="N307" s="115"/>
       <c r="O307" s="114"/>
     </row>
-    <row r="308" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="108" t="s">
         <v>3116</v>
       </c>
@@ -48443,7 +48442,7 @@
       <c r="N308" s="115"/>
       <c r="O308" s="114"/>
     </row>
-    <row r="309" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="108">
         <v>26717529</v>
       </c>
@@ -48479,7 +48478,7 @@
       <c r="N309" s="114"/>
       <c r="O309" s="114"/>
     </row>
-    <row r="310" spans="1:15" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="108" t="s">
         <v>3123</v>
       </c>
@@ -48512,7 +48511,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="119" t="s">
         <v>3126</v>
       </c>
@@ -48543,7 +48542,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="108">
         <v>23545334</v>
       </c>
@@ -48576,7 +48575,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="108">
         <v>28008506</v>
       </c>
@@ -48609,7 +48608,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="314" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="108" t="s">
         <v>3134</v>
       </c>
@@ -48642,7 +48641,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="315" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="108" t="s">
         <v>3138</v>
       </c>
@@ -48675,7 +48674,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="316" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="108" t="s">
         <v>3141</v>
       </c>
@@ -48706,7 +48705,7 @@
       </c>
       <c r="L316" s="110"/>
     </row>
-    <row r="317" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="108">
         <v>31286575</v>
       </c>
@@ -48737,7 +48736,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="318" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="120">
         <v>29568060</v>
       </c>
@@ -48770,7 +48769,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="319" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="108" t="s">
         <v>3150</v>
       </c>
@@ -48803,7 +48802,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="320" spans="1:15" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="108">
         <v>34375976</v>
       </c>
@@ -48836,7 +48835,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="108" t="s">
         <v>3156</v>
       </c>
@@ -48869,7 +48868,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="119" t="s">
         <v>3160</v>
       </c>
@@ -48902,7 +48901,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="108" t="s">
         <v>3163</v>
       </c>
@@ -48935,7 +48934,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="119" t="s">
         <v>3167</v>
       </c>
@@ -48968,7 +48967,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="108">
         <v>20072283</v>
       </c>
@@ -49001,7 +49000,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="108">
         <v>28126172</v>
       </c>
@@ -49034,7 +49033,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="106">
         <v>30384347</v>
       </c>
@@ -49067,7 +49066,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="119" t="s">
         <v>3178</v>
       </c>
@@ -49100,7 +49099,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="108" t="s">
         <v>3183</v>
       </c>
@@ -49133,7 +49132,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="108">
         <v>27188690</v>
       </c>
@@ -49166,7 +49165,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="108">
         <v>18388489</v>
       </c>
@@ -49199,7 +49198,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="108" t="s">
         <v>3190</v>
       </c>
@@ -49232,7 +49231,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="106">
         <v>21805179</v>
       </c>
@@ -49265,7 +49264,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="90.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="119" t="s">
         <v>3196</v>
       </c>
@@ -49298,7 +49297,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="124">
         <v>25401174</v>
       </c>
@@ -49328,7 +49327,7 @@
         <v>2964520360</v>
       </c>
     </row>
-    <row r="336" spans="1:13" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="77">
         <v>18897957</v>
       </c>
@@ -49395,7 +49394,7 @@
       <c r="M337" s="69"/>
       <c r="N337" s="45"/>
     </row>
-    <row r="338" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="73">
         <v>25612540</v>
       </c>
@@ -49458,7 +49457,7 @@
       <c r="M339" s="69"/>
       <c r="N339" s="45"/>
     </row>
-    <row r="340" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="73">
         <v>32413157</v>
       </c>
@@ -49489,7 +49488,7 @@
       </c>
       <c r="M340" s="46"/>
     </row>
-    <row r="341" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="78">
         <v>5</v>
       </c>
@@ -49521,7 +49520,7 @@
       <c r="M341" s="46"/>
       <c r="N341" s="45"/>
     </row>
-    <row r="342" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="73">
         <v>26277140</v>
       </c>
@@ -49581,7 +49580,7 @@
       <c r="M343" s="46"/>
       <c r="N343" s="45"/>
     </row>
-    <row r="344" spans="1:14" s="44" customFormat="1" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" s="44" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="78">
         <v>17250724</v>
       </c>
@@ -49612,7 +49611,7 @@
       </c>
       <c r="M344" s="46"/>
     </row>
-    <row r="345" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="78">
         <v>23099238</v>
       </c>
@@ -49706,7 +49705,7 @@
       <c r="M347" s="46"/>
       <c r="N347" s="45"/>
     </row>
-    <row r="348" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="77">
         <v>22002312</v>
       </c>
@@ -49743,7 +49742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="78">
         <v>36725160</v>
       </c>
@@ -49772,7 +49771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="73">
         <v>36234109</v>
       </c>
@@ -49801,7 +49800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="78">
         <v>28109865</v>
       </c>
@@ -49831,7 +49830,7 @@
       <c r="M351" s="46"/>
       <c r="N351" s="45"/>
     </row>
-    <row r="352" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="78">
         <v>32904748</v>
       </c>
@@ -49921,7 +49920,7 @@
       <c r="M354" s="46"/>
       <c r="N354" s="45"/>
     </row>
-    <row r="355" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="78">
         <v>19030118</v>
       </c>
@@ -49952,7 +49951,7 @@
       </c>
       <c r="M355" s="46"/>
     </row>
-    <row r="356" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="78">
         <v>12313423</v>
       </c>
@@ -50014,7 +50013,7 @@
       <c r="M357" s="46"/>
       <c r="N357" s="45"/>
     </row>
-    <row r="358" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="78">
         <v>31634163</v>
       </c>
@@ -50046,7 +50045,7 @@
       <c r="M358" s="46"/>
       <c r="N358" s="45"/>
     </row>
-    <row r="359" spans="1:14" s="44" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" s="44" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="77">
         <v>21699747</v>
       </c>
@@ -50113,7 +50112,7 @@
       <c r="M360" s="46"/>
       <c r="N360" s="45"/>
     </row>
-    <row r="361" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="78">
         <v>28238543</v>
       </c>
@@ -50145,7 +50144,7 @@
       <c r="M361" s="46"/>
       <c r="N361" s="45"/>
     </row>
-    <row r="362" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="73">
         <v>6</v>
       </c>
@@ -50177,7 +50176,7 @@
       <c r="M362" s="46"/>
       <c r="N362" s="45"/>
     </row>
-    <row r="363" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="78">
         <v>30074155</v>
       </c>
@@ -50209,7 +50208,7 @@
       <c r="M363" s="46"/>
       <c r="N363" s="45"/>
     </row>
-    <row r="364" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="78">
         <v>27188690</v>
       </c>
@@ -50271,7 +50270,7 @@
       <c r="M365" s="46"/>
       <c r="N365" s="45"/>
     </row>
-    <row r="366" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="78" t="s">
         <v>3419</v>
       </c>
@@ -50302,7 +50301,7 @@
       </c>
       <c r="M366" s="46"/>
     </row>
-    <row r="367" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="78">
         <v>2617070</v>
       </c>
@@ -50339,7 +50338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:14" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="78">
         <v>20298315</v>
       </c>
@@ -50370,7 +50369,7 @@
       </c>
       <c r="M368" s="46"/>
     </row>
-    <row r="369" spans="1:15" s="44" customFormat="1" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" s="44" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="78">
         <v>21584011</v>
       </c>
@@ -50401,7 +50400,7 @@
       </c>
       <c r="M369" s="46"/>
     </row>
-    <row r="370" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="78">
         <v>24846876</v>
       </c>
@@ -50433,7 +50432,7 @@
       <c r="M370" s="46"/>
       <c r="N370" s="45"/>
     </row>
-    <row r="371" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="73">
         <v>31606573</v>
       </c>
@@ -50492,7 +50491,7 @@
       <c r="M372" s="46"/>
       <c r="N372" s="45"/>
     </row>
-    <row r="373" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="78">
         <v>27368420</v>
       </c>
@@ -50619,7 +50618,7 @@
       <c r="M376" s="46"/>
       <c r="N376" s="45"/>
     </row>
-    <row r="377" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="78">
         <v>17838295</v>
       </c>
@@ -50652,7 +50651,7 @@
       <c r="N377" s="47"/>
       <c r="O377" s="48"/>
     </row>
-    <row r="378" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="73">
         <v>27444617</v>
       </c>
@@ -50685,7 +50684,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="379" spans="1:15" s="44" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" s="44" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="73">
         <v>17902168</v>
       </c>
@@ -50716,7 +50715,7 @@
       </c>
       <c r="M379" s="46"/>
     </row>
-    <row r="380" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="78">
         <v>17990348</v>
       </c>
@@ -50780,7 +50779,7 @@
       <c r="M381" s="46"/>
       <c r="N381" s="45"/>
     </row>
-    <row r="382" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="78">
         <v>22988395</v>
       </c>
@@ -50812,7 +50811,7 @@
       <c r="M382" s="46"/>
       <c r="N382" s="45"/>
     </row>
-    <row r="383" spans="1:15" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="78">
         <v>29835894</v>
       </c>
@@ -50873,7 +50872,7 @@
       <c r="M384" s="46"/>
       <c r="N384" s="45"/>
     </row>
-    <row r="385" spans="1:14" s="44" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" s="44" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="78">
         <v>32769601</v>
       </c>
@@ -51004,7 +51003,7 @@
       <c r="M388" s="46"/>
       <c r="N388" s="45"/>
     </row>
-    <row r="389" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="106">
         <v>32768516</v>
       </c>
@@ -51025,7 +51024,7 @@
       </c>
       <c r="H389" s="112"/>
     </row>
-    <row r="390" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="106">
         <v>25102388</v>
       </c>
@@ -51046,7 +51045,7 @@
       </c>
       <c r="H390" s="112"/>
     </row>
-    <row r="391" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="106">
         <v>20357976</v>
       </c>
@@ -51067,7 +51066,7 @@
       </c>
       <c r="H391" s="112"/>
     </row>
-    <row r="392" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="106">
         <v>29134100</v>
       </c>
@@ -51088,7 +51087,7 @@
       </c>
       <c r="H392" s="112"/>
     </row>
-    <row r="393" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="106">
         <v>31369883</v>
       </c>
@@ -51109,7 +51108,7 @@
       </c>
       <c r="H393" s="112"/>
     </row>
-    <row r="394" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="106">
         <v>27528432</v>
       </c>
@@ -51130,7 +51129,7 @@
       </c>
       <c r="H394" s="112"/>
     </row>
-    <row r="395" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="106">
         <v>23633314</v>
       </c>
@@ -51151,7 +51150,7 @@
       </c>
       <c r="H395" s="112"/>
     </row>
-    <row r="396" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="106">
         <v>18515480</v>
       </c>
@@ -51175,7 +51174,7 @@
       </c>
       <c r="H396" s="112"/>
     </row>
-    <row r="397" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="106">
         <v>26516454</v>
       </c>
@@ -51196,7 +51195,7 @@
       </c>
       <c r="H397" s="112"/>
     </row>
-    <row r="398" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="106">
         <v>16444190</v>
       </c>
@@ -51217,7 +51216,7 @@
       </c>
       <c r="H398" s="112"/>
     </row>
-    <row r="399" spans="1:14" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="106">
         <v>30564918</v>
       </c>
@@ -51238,7 +51237,7 @@
       </c>
       <c r="H399" s="112"/>
     </row>
-    <row r="400" spans="1:14" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="106">
         <v>32413157</v>
       </c>
@@ -51259,7 +51258,7 @@
       </c>
       <c r="H400" s="112"/>
     </row>
-    <row r="401" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="106">
         <v>17250724</v>
       </c>
@@ -51280,7 +51279,7 @@
       </c>
       <c r="H401" s="112"/>
     </row>
-    <row r="402" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="106">
         <v>20298315</v>
       </c>
@@ -51301,7 +51300,7 @@
       </c>
       <c r="H402" s="112"/>
     </row>
-    <row r="403" spans="1:11" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="73">
         <v>17331640</v>
       </c>
@@ -51323,7 +51322,7 @@
       </c>
       <c r="K403"/>
     </row>
-    <row r="404" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="73">
         <v>18261178</v>
       </c>
@@ -51342,7 +51341,7 @@
       <c r="H404" s="82"/>
       <c r="K404"/>
     </row>
-    <row r="405" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="73">
         <v>11619636</v>
       </c>
@@ -51361,7 +51360,7 @@
       <c r="H405" s="82"/>
       <c r="K405"/>
     </row>
-    <row r="406" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="73">
         <v>16031467</v>
       </c>
@@ -51380,7 +51379,7 @@
       <c r="H406" s="82"/>
       <c r="K406"/>
     </row>
-    <row r="407" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="73">
         <v>28008101</v>
       </c>
@@ -51399,7 +51398,7 @@
       <c r="H407" s="82"/>
       <c r="K407"/>
     </row>
-    <row r="408" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="73">
         <v>13890986</v>
       </c>
@@ -51418,7 +51417,7 @@
       <c r="H408" s="82"/>
       <c r="K408"/>
     </row>
-    <row r="409" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="73">
         <v>24293261</v>
       </c>
@@ -51437,7 +51436,7 @@
       <c r="H409" s="82"/>
       <c r="K409"/>
     </row>
-    <row r="410" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="73">
         <v>24090218</v>
       </c>
@@ -51456,7 +51455,7 @@
       <c r="H410" s="82"/>
       <c r="K410"/>
     </row>
-    <row r="411" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="73">
         <v>14957512</v>
       </c>
@@ -51475,7 +51474,7 @@
       <c r="H411" s="82"/>
       <c r="K411"/>
     </row>
-    <row r="412" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="73">
         <v>25925082</v>
       </c>
@@ -51494,7 +51493,7 @@
       <c r="H412" s="82"/>
       <c r="K412"/>
     </row>
-    <row r="413" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="73">
         <v>24983858</v>
       </c>
@@ -51513,7 +51512,7 @@
       <c r="H413" s="82"/>
       <c r="K413"/>
     </row>
-    <row r="414" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="73">
         <v>27528432</v>
       </c>
@@ -51532,7 +51531,7 @@
       <c r="H414" s="82"/>
       <c r="K414"/>
     </row>
-    <row r="415" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="73">
         <v>26516454</v>
       </c>
@@ -51551,7 +51550,7 @@
       <c r="H415" s="82"/>
       <c r="K415"/>
     </row>
-    <row r="416" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="73">
         <v>33688032</v>
       </c>
@@ -51570,7 +51569,7 @@
       <c r="H416" s="82"/>
       <c r="K416"/>
     </row>
-    <row r="417" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="73">
         <v>23119823</v>
       </c>
@@ -51589,7 +51588,7 @@
       <c r="H417" s="82"/>
       <c r="K417"/>
     </row>
-    <row r="418" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="106">
         <v>23547698</v>
       </c>
@@ -51610,7 +51609,7 @@
       </c>
       <c r="H418" s="112"/>
     </row>
-    <row r="419" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="106">
         <v>30786698</v>
       </c>
@@ -51631,7 +51630,7 @@
       </c>
       <c r="H419" s="112"/>
     </row>
-    <row r="420" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="106">
         <v>30786698</v>
       </c>
@@ -51652,7 +51651,7 @@
       </c>
       <c r="H420" s="112"/>
     </row>
-    <row r="421" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="106">
         <v>23675728</v>
       </c>
@@ -51673,7 +51672,7 @@
       </c>
       <c r="H421" s="112"/>
     </row>
-    <row r="422" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="106">
         <v>23119823</v>
       </c>
@@ -51694,7 +51693,7 @@
       </c>
       <c r="H422" s="112"/>
     </row>
-    <row r="423" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="106">
         <v>14957512</v>
       </c>
@@ -51715,7 +51714,7 @@
       </c>
       <c r="H423" s="112"/>
     </row>
-    <row r="424" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="106">
         <v>17544177</v>
       </c>
@@ -51736,7 +51735,7 @@
       </c>
       <c r="H424" s="112"/>
     </row>
-    <row r="425" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="106">
         <v>18312890</v>
       </c>
@@ -51757,7 +51756,7 @@
       </c>
       <c r="H425" s="112"/>
     </row>
-    <row r="426" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="106">
         <v>20959566</v>
       </c>
@@ -51778,7 +51777,7 @@
       </c>
       <c r="H426" s="112"/>
     </row>
-    <row r="427" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="106">
         <v>21912660</v>
       </c>
@@ -51799,7 +51798,7 @@
       </c>
       <c r="H427" s="112"/>
     </row>
-    <row r="428" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="106">
         <v>29771611</v>
       </c>
@@ -51820,7 +51819,7 @@
       </c>
       <c r="H428" s="112"/>
     </row>
-    <row r="429" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="106">
         <v>23215094</v>
       </c>
@@ -51841,7 +51840,7 @@
       </c>
       <c r="H429" s="112"/>
     </row>
-    <row r="430" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="106">
         <v>13417829</v>
       </c>
@@ -51862,7 +51861,7 @@
       </c>
       <c r="H430" s="129"/>
     </row>
-    <row r="431" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="106">
         <v>11838522</v>
       </c>
@@ -51883,7 +51882,7 @@
       </c>
       <c r="H431" s="112"/>
     </row>
-    <row r="432" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="106">
         <v>18312890</v>
       </c>
@@ -51904,7 +51903,7 @@
       </c>
       <c r="H432" s="112"/>
     </row>
-    <row r="433" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="106">
         <v>17000258</v>
       </c>
@@ -51925,7 +51924,7 @@
       </c>
       <c r="H433" s="129"/>
     </row>
-    <row r="434" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="106">
         <v>21912660</v>
       </c>
@@ -51946,7 +51945,7 @@
       </c>
       <c r="H434" s="112"/>
     </row>
-    <row r="435" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="106">
         <v>26512125</v>
       </c>
@@ -51967,7 +51966,7 @@
       </c>
       <c r="H435" s="112"/>
     </row>
-    <row r="436" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="106">
         <v>12731638</v>
       </c>
@@ -51988,7 +51987,7 @@
       </c>
       <c r="H436" s="129"/>
     </row>
-    <row r="437" spans="1:8" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="106">
         <v>21938641</v>
       </c>
@@ -52009,7 +52008,7 @@
       </c>
       <c r="H437" s="112"/>
     </row>
-    <row r="438" spans="1:8" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="106">
         <v>20702317</v>
       </c>
@@ -52030,7 +52029,7 @@
       </c>
       <c r="H438" s="112"/>
     </row>
-    <row r="439" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="106">
         <v>17509280</v>
       </c>
@@ -52051,7 +52050,7 @@
       </c>
       <c r="H439" s="112"/>
     </row>
-    <row r="440" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="106">
         <v>18096463</v>
       </c>
@@ -52072,7 +52071,7 @@
       </c>
       <c r="H440" s="112"/>
     </row>
-    <row r="441" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="106">
         <v>22063806</v>
       </c>
@@ -52093,7 +52092,7 @@
       </c>
       <c r="H441" s="112"/>
     </row>
-    <row r="442" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="106">
         <v>23547698</v>
       </c>
@@ -52114,7 +52113,7 @@
       </c>
       <c r="H442" s="112"/>
     </row>
-    <row r="443" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="106">
         <v>22320812</v>
       </c>
@@ -52135,7 +52134,7 @@
       </c>
       <c r="H443" s="112"/>
     </row>
-    <row r="444" spans="1:8" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="106">
         <v>34222510</v>
       </c>
@@ -52156,7 +52155,7 @@
       </c>
       <c r="H444" s="112"/>
     </row>
-    <row r="445" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="106">
         <v>19030118</v>
       </c>
@@ -52177,7 +52176,7 @@
       </c>
       <c r="H445" s="112"/>
     </row>
-    <row r="446" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="106" t="s">
         <v>3419</v>
       </c>
@@ -52198,7 +52197,7 @@
       </c>
       <c r="H446" s="112"/>
     </row>
-    <row r="447" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="106">
         <v>14538006</v>
       </c>
@@ -52219,7 +52218,7 @@
       </c>
       <c r="H447" s="112"/>
     </row>
-    <row r="448" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="106">
         <v>16176376</v>
       </c>
@@ -52240,7 +52239,7 @@
       </c>
       <c r="H448" s="112"/>
     </row>
-    <row r="449" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="106">
         <v>28008080</v>
       </c>
@@ -52261,7 +52260,7 @@
       </c>
       <c r="H449" s="112"/>
     </row>
-    <row r="450" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="106">
         <v>28008506</v>
       </c>
@@ -52282,7 +52281,7 @@
       </c>
       <c r="H450" s="112"/>
     </row>
-    <row r="451" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="130">
         <v>22988395</v>
       </c>
@@ -52303,7 +52302,7 @@
       </c>
       <c r="H451" s="112"/>
     </row>
-    <row r="452" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="106">
         <v>13313886</v>
       </c>
@@ -52324,7 +52323,7 @@
       </c>
       <c r="H452" s="112"/>
     </row>
-    <row r="453" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="106">
         <v>25209665</v>
       </c>
@@ -52351,7 +52350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="106">
         <v>12</v>
       </c>
@@ -52372,7 +52371,7 @@
       </c>
       <c r="H454" s="112"/>
     </row>
-    <row r="455" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="106">
         <v>21805179</v>
       </c>
@@ -52393,7 +52392,7 @@
       </c>
       <c r="H455" s="112"/>
     </row>
-    <row r="456" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="106">
         <v>21390677</v>
       </c>
@@ -52414,7 +52413,7 @@
       </c>
       <c r="H456" s="112"/>
     </row>
-    <row r="457" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="106">
         <v>29568097</v>
       </c>
@@ -52435,7 +52434,7 @@
       </c>
       <c r="H457" s="112"/>
     </row>
-    <row r="458" spans="1:11" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="106">
         <v>11</v>
       </c>
@@ -52456,7 +52455,7 @@
       </c>
       <c r="H458" s="112"/>
     </row>
-    <row r="459" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="73"/>
       <c r="B459" s="44" t="s">
         <v>3391</v>
@@ -52468,7 +52467,7 @@
       <c r="H459" s="82"/>
       <c r="K459"/>
     </row>
-    <row r="460" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="73"/>
       <c r="B460" s="44" t="s">
         <v>3391</v>
@@ -52480,7 +52479,7 @@
       <c r="H460" s="82"/>
       <c r="K460"/>
     </row>
-    <row r="461" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="73"/>
       <c r="B461" s="44" t="s">
         <v>3391</v>
@@ -52492,7 +52491,7 @@
       <c r="H461" s="82"/>
       <c r="K461"/>
     </row>
-    <row r="462" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="73"/>
       <c r="B462" s="44" t="s">
         <v>3391</v>
@@ -52504,7 +52503,7 @@
       <c r="H462" s="82"/>
       <c r="K462"/>
     </row>
-    <row r="463" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="73"/>
       <c r="B463" s="44" t="s">
         <v>3391</v>
@@ -52516,7 +52515,7 @@
       <c r="H463" s="82"/>
       <c r="K463"/>
     </row>
-    <row r="464" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="73"/>
       <c r="B464" s="44" t="s">
         <v>3391</v>
@@ -52528,7 +52527,7 @@
       <c r="H464" s="82"/>
       <c r="K464"/>
     </row>
-    <row r="465" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="73"/>
       <c r="B465" s="44" t="s">
         <v>3391</v>
@@ -52540,7 +52539,7 @@
       <c r="H465" s="82"/>
       <c r="K465"/>
     </row>
-    <row r="466" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="73"/>
       <c r="B466" s="44" t="s">
         <v>3391</v>
@@ -52552,7 +52551,7 @@
       <c r="H466" s="82"/>
       <c r="K466"/>
     </row>
-    <row r="467" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="73"/>
       <c r="B467" s="44" t="s">
         <v>3391</v>
@@ -52564,7 +52563,7 @@
       <c r="H467" s="82"/>
       <c r="K467"/>
     </row>
-    <row r="468" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="73"/>
       <c r="B468" s="44" t="s">
         <v>3391</v>
@@ -52576,7 +52575,7 @@
       <c r="H468" s="82"/>
       <c r="K468"/>
     </row>
-    <row r="469" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="73"/>
       <c r="B469" s="44" t="s">
         <v>3391</v>
@@ -52670,7 +52669,7 @@
       <c r="L472" s="45"/>
       <c r="N472" s="45"/>
     </row>
-    <row r="473" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="73">
         <v>22652698</v>
       </c>
@@ -52699,7 +52698,7 @@
       <c r="K473"/>
       <c r="N473" s="45"/>
     </row>
-    <row r="474" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A474" s="73">
         <v>14043953</v>
       </c>
@@ -52728,7 +52727,7 @@
       </c>
       <c r="N474" s="47"/>
     </row>
-    <row r="475" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="73">
         <v>30757492</v>
       </c>
@@ -52756,7 +52755,7 @@
       <c r="N475" s="47"/>
       <c r="O475" s="48"/>
     </row>
-    <row r="476" spans="1:15" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="73">
         <v>18855279</v>
       </c>
@@ -52810,7 +52809,7 @@
       <c r="K477"/>
       <c r="N477" s="45"/>
     </row>
-    <row r="478" spans="1:15" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="73">
         <v>34483846</v>
       </c>
@@ -52842,7 +52841,7 @@
       <c r="K478"/>
       <c r="N478" s="45"/>
     </row>
-    <row r="479" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A479" s="73">
         <v>12403592</v>
       </c>
@@ -52873,7 +52872,7 @@
       <c r="N479" s="47"/>
       <c r="O479" s="48"/>
     </row>
-    <row r="480" spans="1:15" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A480" s="101">
         <v>20508194</v>
       </c>
@@ -52892,7 +52891,7 @@
       <c r="H480" s="82"/>
       <c r="K480"/>
     </row>
-    <row r="481" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A481" s="73">
         <v>18470506</v>
       </c>
@@ -52921,7 +52920,7 @@
       <c r="K481"/>
       <c r="N481" s="45"/>
     </row>
-    <row r="482" spans="1:14" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="73">
         <v>21805179</v>
       </c>
@@ -52953,7 +52952,7 @@
       <c r="K482"/>
       <c r="N482" s="45"/>
     </row>
-    <row r="483" spans="1:14" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="73">
         <v>28379821</v>
       </c>
@@ -52979,7 +52978,7 @@
       <c r="K483"/>
       <c r="N483" s="45"/>
     </row>
-    <row r="484" spans="1:14" s="44" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" s="44" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A484" s="73">
         <v>21340356</v>
       </c>
@@ -53008,7 +53007,7 @@
       <c r="K484"/>
       <c r="N484" s="45"/>
     </row>
-    <row r="485" spans="1:14" s="44" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" s="44" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="73">
         <v>38785828</v>
       </c>
@@ -53032,7 +53031,7 @@
       </c>
       <c r="K485"/>
     </row>
-    <row r="486" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A486" s="73">
         <v>23686397</v>
       </c>
@@ -53056,7 +53055,7 @@
       </c>
       <c r="K486"/>
     </row>
-    <row r="487" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A487" s="73">
         <v>23238035</v>
       </c>
@@ -53080,7 +53079,7 @@
       </c>
       <c r="K487"/>
     </row>
-    <row r="488" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A488" s="73">
         <v>34007807</v>
       </c>
@@ -53104,7 +53103,7 @@
       </c>
       <c r="K488"/>
     </row>
-    <row r="489" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="73">
         <v>29567935</v>
       </c>
@@ -53128,7 +53127,7 @@
       </c>
       <c r="K489"/>
     </row>
-    <row r="490" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A490" s="73">
         <v>35356919</v>
       </c>
@@ -53152,7 +53151,7 @@
       </c>
       <c r="K490"/>
     </row>
-    <row r="491" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="73">
         <v>34875976</v>
       </c>
@@ -53176,7 +53175,7 @@
       </c>
       <c r="K491"/>
     </row>
-    <row r="492" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A492" s="73">
         <v>28604556</v>
       </c>
@@ -53200,7 +53199,7 @@
       </c>
       <c r="K492"/>
     </row>
-    <row r="493" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A493" s="73">
         <v>35356995</v>
       </c>
@@ -53224,7 +53223,7 @@
       </c>
       <c r="K493"/>
     </row>
-    <row r="494" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" s="73">
         <v>36733237</v>
       </c>
@@ -53248,7 +53247,7 @@
       </c>
       <c r="K494"/>
     </row>
-    <row r="495" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="73">
         <v>30768556</v>
       </c>
@@ -53272,7 +53271,7 @@
       </c>
       <c r="K495"/>
     </row>
-    <row r="496" spans="1:14" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="73">
         <v>36708944</v>
       </c>
@@ -53296,7 +53295,7 @@
       </c>
       <c r="K496"/>
     </row>
-    <row r="497" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A497" s="73">
         <v>236120217</v>
       </c>
@@ -53320,7 +53319,7 @@
       </c>
       <c r="K497"/>
     </row>
-    <row r="498" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="78">
         <v>22988395</v>
       </c>
@@ -53344,7 +53343,7 @@
       </c>
       <c r="K498"/>
     </row>
-    <row r="499" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="73">
         <v>20267690</v>
       </c>
@@ -53368,7 +53367,7 @@
       </c>
       <c r="K499"/>
     </row>
-    <row r="500" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A500" s="73">
         <v>35631142</v>
       </c>
@@ -53392,7 +53391,7 @@
       </c>
       <c r="K500"/>
     </row>
-    <row r="501" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="73">
         <v>41402813</v>
       </c>
@@ -53416,7 +53415,7 @@
       </c>
       <c r="K501"/>
     </row>
-    <row r="502" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A502" s="73">
         <v>39999403</v>
       </c>
@@ -53440,7 +53439,7 @@
       </c>
       <c r="K502"/>
     </row>
-    <row r="503" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A503" s="73">
         <v>46152301</v>
       </c>
@@ -53464,7 +53463,7 @@
       </c>
       <c r="K503"/>
     </row>
-    <row r="504" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A504" s="73">
         <v>26939074</v>
       </c>
@@ -53488,7 +53487,7 @@
       </c>
       <c r="K504"/>
     </row>
-    <row r="505" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A505" s="73">
         <v>27544301</v>
       </c>
@@ -53512,7 +53511,7 @@
       </c>
       <c r="K505"/>
     </row>
-    <row r="506" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="73">
         <v>30484213</v>
       </c>
@@ -53536,7 +53535,7 @@
       </c>
       <c r="K506"/>
     </row>
-    <row r="507" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A507" s="73">
         <v>32768556</v>
       </c>
@@ -53560,7 +53559,7 @@
       </c>
       <c r="K507"/>
     </row>
-    <row r="508" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A508" s="73">
         <v>22002312</v>
       </c>
@@ -53584,7 +53583,7 @@
       </c>
       <c r="K508"/>
     </row>
-    <row r="509" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="73">
         <v>12070833</v>
       </c>
@@ -53608,7 +53607,7 @@
       </c>
       <c r="K509"/>
     </row>
-    <row r="510" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="73">
         <v>21805179</v>
       </c>
@@ -53632,7 +53631,7 @@
       </c>
       <c r="K510"/>
     </row>
-    <row r="511" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A511" s="73">
         <v>10503719</v>
       </c>
@@ -53656,7 +53655,7 @@
       </c>
       <c r="K511"/>
     </row>
-    <row r="512" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A512" s="73">
         <v>36733297</v>
       </c>
@@ -53680,7 +53679,7 @@
       </c>
       <c r="K512"/>
     </row>
-    <row r="513" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="73">
         <v>14934463</v>
       </c>
@@ -53704,7 +53703,7 @@
       </c>
       <c r="K513"/>
     </row>
-    <row r="514" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A514" s="73">
         <v>13</v>
       </c>
@@ -53728,7 +53727,7 @@
       </c>
       <c r="K514"/>
     </row>
-    <row r="515" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A515" s="73">
         <v>20521719</v>
       </c>
@@ -53752,7 +53751,7 @@
       </c>
       <c r="K515"/>
     </row>
-    <row r="516" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A516" s="73">
         <v>11642213</v>
       </c>
@@ -53776,7 +53775,7 @@
       </c>
       <c r="K516"/>
     </row>
-    <row r="517" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A517" s="73">
         <v>27508868</v>
       </c>
@@ -53800,7 +53799,7 @@
       </c>
       <c r="K517"/>
     </row>
-    <row r="518" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="73">
         <v>30702000</v>
       </c>
@@ -53824,7 +53823,7 @@
       </c>
       <c r="K518"/>
     </row>
-    <row r="519" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A519" s="73">
         <v>35356046</v>
       </c>
@@ -53848,7 +53847,7 @@
       </c>
       <c r="K519"/>
     </row>
-    <row r="520" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="73">
         <v>30175412</v>
       </c>
@@ -53872,7 +53871,7 @@
       </c>
       <c r="K520"/>
     </row>
-    <row r="521" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A521" s="73">
         <v>16852601</v>
       </c>
@@ -53896,7 +53895,7 @@
       </c>
       <c r="K521"/>
     </row>
-    <row r="522" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="73">
         <v>17563093</v>
       </c>
@@ -53920,7 +53919,7 @@
       </c>
       <c r="K522"/>
     </row>
-    <row r="523" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="73">
         <v>30819238</v>
       </c>
@@ -53944,7 +53943,7 @@
       </c>
       <c r="K523"/>
     </row>
-    <row r="524" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A524" s="73">
         <v>34674754</v>
       </c>
@@ -53968,7 +53967,7 @@
       </c>
       <c r="K524"/>
     </row>
-    <row r="525" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A525" s="73">
         <v>30128779</v>
       </c>
@@ -53992,7 +53991,7 @@
       </c>
       <c r="K525"/>
     </row>
-    <row r="526" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="73">
         <v>17200370</v>
       </c>
@@ -54016,7 +54015,7 @@
       </c>
       <c r="K526"/>
     </row>
-    <row r="527" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A527" s="73">
         <v>34483519</v>
       </c>
@@ -54040,7 +54039,7 @@
       </c>
       <c r="K527"/>
     </row>
-    <row r="528" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A528" s="73">
         <v>29659934</v>
       </c>
@@ -54064,7 +54063,7 @@
       </c>
       <c r="K528"/>
     </row>
-    <row r="529" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A529" s="73">
         <v>27617868</v>
       </c>
@@ -54088,7 +54087,7 @@
       </c>
       <c r="K529"/>
     </row>
-    <row r="530" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A530" s="73">
         <v>29718104</v>
       </c>
@@ -54112,7 +54111,7 @@
       </c>
       <c r="K530"/>
     </row>
-    <row r="531" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A531" s="73">
         <v>24695231</v>
       </c>
@@ -54136,7 +54135,7 @@
       </c>
       <c r="K531"/>
     </row>
-    <row r="532" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A532" s="74">
         <v>21784786</v>
       </c>
@@ -54160,7 +54159,7 @@
       </c>
       <c r="K532"/>
     </row>
-    <row r="533" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A533" s="73">
         <v>34235766</v>
       </c>
@@ -54184,7 +54183,7 @@
       </c>
       <c r="K533"/>
     </row>
-    <row r="534" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A534" s="103">
         <v>18318021</v>
       </c>
@@ -54208,7 +54207,7 @@
       </c>
       <c r="K534"/>
     </row>
-    <row r="535" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A535" s="73">
         <v>28404933</v>
       </c>
@@ -54229,7 +54228,7 @@
       </c>
       <c r="K535"/>
     </row>
-    <row r="536" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A536" s="73">
         <v>32769372</v>
       </c>
@@ -54250,7 +54249,7 @@
       </c>
       <c r="K536"/>
     </row>
-    <row r="537" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A537" s="73">
         <v>37279065</v>
       </c>
@@ -54271,7 +54270,7 @@
       </c>
       <c r="K537"/>
     </row>
-    <row r="538" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="73">
         <v>28985561</v>
       </c>
@@ -54292,7 +54291,7 @@
       </c>
       <c r="K538"/>
     </row>
-    <row r="539" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A539" s="73">
         <v>32554990</v>
       </c>
@@ -54313,7 +54312,7 @@
       </c>
       <c r="K539"/>
     </row>
-    <row r="540" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A540" s="73">
         <v>41351041</v>
       </c>
@@ -54334,7 +54333,7 @@
       </c>
       <c r="K540"/>
     </row>
-    <row r="541" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A541" s="73">
         <v>46087047</v>
       </c>
@@ -54355,7 +54354,7 @@
       </c>
       <c r="K541"/>
     </row>
-    <row r="542" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="73">
         <v>16198378</v>
       </c>
@@ -54376,7 +54375,7 @@
       </c>
       <c r="K542"/>
     </row>
-    <row r="543" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A543" s="73">
         <v>42994136</v>
       </c>
@@ -54397,7 +54396,7 @@
       </c>
       <c r="K543"/>
     </row>
-    <row r="544" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A544" s="73">
         <v>32135934</v>
       </c>
@@ -54418,7 +54417,7 @@
       </c>
       <c r="K544"/>
     </row>
-    <row r="545" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A545" s="73">
         <v>25180697</v>
       </c>
@@ -54439,7 +54438,7 @@
       </c>
       <c r="K545"/>
     </row>
-    <row r="546" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A546" s="73">
         <v>22607067</v>
       </c>
@@ -54460,7 +54459,7 @@
       </c>
       <c r="K546"/>
     </row>
-    <row r="547" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A547" s="73">
         <v>31608930</v>
       </c>
@@ -54481,7 +54480,7 @@
       </c>
       <c r="K547"/>
     </row>
-    <row r="548" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A548" s="73">
         <v>29577525</v>
       </c>
@@ -54502,7 +54501,7 @@
       </c>
       <c r="K548"/>
     </row>
-    <row r="549" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="73">
         <v>25633248</v>
       </c>
@@ -54523,7 +54522,7 @@
       </c>
       <c r="K549"/>
     </row>
-    <row r="550" spans="1:11" s="44" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" s="44" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A550" s="73">
         <v>29419077</v>
       </c>
@@ -54544,7 +54543,7 @@
       </c>
       <c r="K550"/>
     </row>
-    <row r="551" spans="1:11" s="44" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" s="44" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A551" s="73">
         <v>28008080</v>
       </c>
@@ -54565,7 +54564,7 @@
       </c>
       <c r="K551"/>
     </row>
-    <row r="552" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="73">
         <v>25102388</v>
       </c>
@@ -54586,7 +54585,7 @@
       </c>
       <c r="K552"/>
     </row>
-    <row r="553" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="75">
         <v>20357976</v>
       </c>
@@ -54607,7 +54606,7 @@
       </c>
       <c r="K553"/>
     </row>
-    <row r="554" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="101">
         <v>28008506</v>
       </c>
@@ -54628,7 +54627,7 @@
       </c>
       <c r="K554"/>
     </row>
-    <row r="555" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="73">
         <v>16130226</v>
       </c>
@@ -54649,7 +54648,7 @@
       </c>
       <c r="K555"/>
     </row>
-    <row r="556" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="73">
         <v>29134100</v>
       </c>
@@ -54670,7 +54669,7 @@
       </c>
       <c r="K556"/>
     </row>
-    <row r="557" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="101">
         <v>5911229</v>
       </c>
@@ -54691,7 +54690,7 @@
       </c>
       <c r="K557"/>
     </row>
-    <row r="558" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="73">
         <v>13465509</v>
       </c>
@@ -54712,7 +54711,7 @@
       </c>
       <c r="K558"/>
     </row>
-    <row r="559" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="73">
         <v>16198378</v>
       </c>
@@ -54733,7 +54732,7 @@
       </c>
       <c r="K559"/>
     </row>
-    <row r="560" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="101">
         <v>28008269</v>
       </c>
@@ -54754,7 +54753,7 @@
       </c>
       <c r="K560"/>
     </row>
-    <row r="561" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="73">
         <v>21938641</v>
       </c>
@@ -54775,7 +54774,7 @@
       </c>
       <c r="K561"/>
     </row>
-    <row r="562" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="73">
         <v>20702317</v>
       </c>
@@ -54796,7 +54795,7 @@
       </c>
       <c r="K562"/>
     </row>
-    <row r="563" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="73">
         <v>27528432</v>
       </c>
@@ -54817,7 +54816,7 @@
       </c>
       <c r="K563"/>
     </row>
-    <row r="564" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="101">
         <v>28008375</v>
       </c>
@@ -54838,7 +54837,7 @@
       </c>
       <c r="K564"/>
     </row>
-    <row r="565" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="73">
         <v>18515480</v>
       </c>
@@ -54862,7 +54861,7 @@
       </c>
       <c r="K565"/>
     </row>
-    <row r="566" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="102">
         <v>22678491</v>
       </c>
@@ -54883,7 +54882,7 @@
       </c>
       <c r="K566"/>
     </row>
-    <row r="567" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="73">
         <v>25209665</v>
       </c>
@@ -54910,7 +54909,7 @@
       </c>
       <c r="K567"/>
     </row>
-    <row r="568" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="101">
         <v>25569792</v>
       </c>
@@ -54931,7 +54930,7 @@
       </c>
       <c r="K568"/>
     </row>
-    <row r="569" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="73">
         <v>23215094</v>
       </c>
@@ -54952,7 +54951,7 @@
       </c>
       <c r="K569"/>
     </row>
-    <row r="570" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="73">
         <v>30384347</v>
       </c>
@@ -54973,7 +54972,7 @@
       </c>
       <c r="K570"/>
     </row>
-    <row r="571" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="73">
         <v>34222510</v>
       </c>
@@ -54994,7 +54993,7 @@
       </c>
       <c r="K571"/>
     </row>
-    <row r="572" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="73">
         <v>32413157</v>
       </c>
@@ -55015,7 +55014,7 @@
       </c>
       <c r="K572"/>
     </row>
-    <row r="573" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="78">
         <v>22988395</v>
       </c>
@@ -55036,7 +55035,7 @@
       </c>
       <c r="K573"/>
     </row>
-    <row r="574" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="73">
         <v>34483846</v>
       </c>
@@ -55057,7 +55056,7 @@
       </c>
       <c r="K574"/>
     </row>
-    <row r="575" spans="1:11" s="44" customFormat="1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" s="44" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="73">
         <v>21805179</v>
       </c>
@@ -55078,7 +55077,7 @@
       </c>
       <c r="K575"/>
     </row>
-    <row r="576" spans="1:11" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="120">
         <v>21784786</v>
       </c>
@@ -55098,7 +55097,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="577" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="106">
         <v>30068261</v>
       </c>
@@ -55118,7 +55117,7 @@
         <v>3902</v>
       </c>
     </row>
-    <row r="578" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="106">
         <v>37170768</v>
       </c>
@@ -55138,7 +55137,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="120">
         <v>29568060</v>
       </c>
@@ -55158,7 +55157,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="580" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="130">
         <v>2617070</v>
       </c>
@@ -55178,7 +55177,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="581" spans="1:7" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="106">
         <v>27444617</v>
       </c>
@@ -55738,7 +55737,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="73">
         <v>23119823</v>
       </c>
@@ -55758,7 +55757,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="610" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="73">
         <v>13890986</v>
       </c>
@@ -55778,7 +55777,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="611" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="73">
         <v>13917204</v>
       </c>
@@ -55798,7 +55797,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="76">
         <v>23215094</v>
       </c>
@@ -55818,7 +55817,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="613" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="73">
         <v>26329414</v>
       </c>
@@ -55838,7 +55837,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="614" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="73">
         <v>17168746</v>
       </c>
@@ -55858,7 +55857,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="615" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="73">
         <v>14412602</v>
       </c>
@@ -55878,7 +55877,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="616" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="101">
         <v>23099238</v>
       </c>
@@ -55898,7 +55897,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="617" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="106">
         <v>1</v>
       </c>
@@ -55918,7 +55917,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="618" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="80">
         <v>14957512</v>
       </c>
@@ -55938,7 +55937,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="619" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="73">
         <v>17839326</v>
       </c>
@@ -55958,7 +55957,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="73">
         <v>11963514</v>
       </c>
@@ -55978,9 +55977,183 @@
         <v>3598</v>
       </c>
     </row>
+    <row r="621" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="131">
+        <v>35167786</v>
+      </c>
+      <c r="B621" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C621" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E621" s="132" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F621" s="132" t="s">
+        <v>3792</v>
+      </c>
+      <c r="G621" s="132" t="s">
+        <v>797</v>
+      </c>
+      <c r="I621" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J621" s="132">
+        <v>2901405757</v>
+      </c>
+      <c r="L621" s="132" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="133">
+        <v>41067091</v>
+      </c>
+      <c r="B622" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C622" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E622" s="132" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F622" s="132" t="s">
+        <v>3793</v>
+      </c>
+      <c r="G622" s="132" t="s">
+        <v>942</v>
+      </c>
+      <c r="I622" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J622" s="132">
+        <v>2901489995</v>
+      </c>
+      <c r="L622" s="132" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="134" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B623" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C623" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E623" s="132" t="s">
+        <v>3760</v>
+      </c>
+      <c r="F623" s="132" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G623" s="132" t="s">
+        <v>3737</v>
+      </c>
+      <c r="I623" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J623" s="132">
+        <v>2964489712</v>
+      </c>
+      <c r="L623" s="132" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="134" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B624" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C624" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E624" s="132" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F624" s="132" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G624" s="132" t="s">
+        <v>3809</v>
+      </c>
+      <c r="I624" s="132" t="s">
+        <v>3119</v>
+      </c>
+      <c r="J624" s="132">
+        <v>2964613619</v>
+      </c>
+      <c r="L624" s="132" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="135">
+        <v>31042152</v>
+      </c>
+      <c r="B625" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C625" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E625" s="132" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F625" s="132" t="s">
+        <v>3794</v>
+      </c>
+      <c r="G625" s="132" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I625" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="J625" s="132">
+        <v>2964489603</v>
+      </c>
+      <c r="L625" s="132" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="136">
+        <v>24102316</v>
+      </c>
+      <c r="B626" s="107" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C626" s="107">
+        <v>2025</v>
+      </c>
+      <c r="E626" s="132" t="s">
+        <v>3758</v>
+      </c>
+      <c r="F626" s="132" t="s">
+        <v>3795</v>
+      </c>
+      <c r="G626" s="132" t="s">
+        <v>3762</v>
+      </c>
+      <c r="I626" s="132" t="s">
+        <v>20</v>
+      </c>
+      <c r="J626" s="132">
+        <v>2901529818</v>
+      </c>
+      <c r="L626" s="132" t="s">
+        <v>3763</v>
+      </c>
+    </row>
     <row r="627" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="131">
-        <v>35167786</v>
+        <v>29567935</v>
       </c>
       <c r="B627" s="107" t="s">
         <v>3810</v>
@@ -55989,27 +56162,27 @@
         <v>2025</v>
       </c>
       <c r="E627" s="132" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="F627" s="132" t="s">
-        <v>3792</v>
+        <v>3796</v>
       </c>
       <c r="G627" s="132" t="s">
-        <v>797</v>
+        <v>3764</v>
       </c>
       <c r="I627" s="132" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J627" s="132">
-        <v>2901405757</v>
-      </c>
-      <c r="L627" s="132" t="s">
-        <v>3757</v>
+        <v>2964603542</v>
+      </c>
+      <c r="K627" s="132" t="s">
+        <v>3765</v>
       </c>
     </row>
     <row r="628" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="133">
-        <v>41067091</v>
+      <c r="A628" s="136">
+        <v>32554990</v>
       </c>
       <c r="B628" s="107" t="s">
         <v>3810</v>
@@ -56021,24 +56194,24 @@
         <v>3758</v>
       </c>
       <c r="F628" s="132" t="s">
-        <v>3793</v>
+        <v>3766</v>
       </c>
       <c r="G628" s="132" t="s">
-        <v>942</v>
+        <v>1992</v>
       </c>
       <c r="I628" s="132" t="s">
         <v>20</v>
       </c>
       <c r="J628" s="132">
-        <v>2901489995</v>
+        <v>2901482666</v>
       </c>
       <c r="L628" s="132" t="s">
-        <v>3759</v>
+        <v>3767</v>
       </c>
     </row>
     <row r="629" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="134" t="s">
-        <v>3631</v>
+      <c r="A629" s="131">
+        <v>31160762</v>
       </c>
       <c r="B629" s="107" t="s">
         <v>3810</v>
@@ -56047,27 +56220,27 @@
         <v>2025</v>
       </c>
       <c r="E629" s="132" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="F629" s="132" t="s">
-        <v>3630</v>
+        <v>3797</v>
       </c>
       <c r="G629" s="132" t="s">
-        <v>3737</v>
+        <v>2016</v>
       </c>
       <c r="I629" s="132" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J629" s="132">
-        <v>2964489712</v>
+        <v>2964527327</v>
       </c>
       <c r="L629" s="132" t="s">
-        <v>3632</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="630" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="134" t="s">
-        <v>3699</v>
+      <c r="A630" s="137">
+        <v>32117408</v>
       </c>
       <c r="B630" s="107" t="s">
         <v>3810</v>
@@ -56076,27 +56249,27 @@
         <v>2025</v>
       </c>
       <c r="E630" s="132" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="F630" s="132" t="s">
-        <v>3698</v>
+        <v>3791</v>
       </c>
       <c r="G630" s="132" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="I630" s="132" t="s">
-        <v>3119</v>
+        <v>42</v>
       </c>
       <c r="J630" s="132">
-        <v>2964613619</v>
-      </c>
-      <c r="L630" s="132" t="s">
-        <v>3700</v>
+        <v>2964471844</v>
+      </c>
+      <c r="K630" s="132" t="s">
+        <v>2087</v>
       </c>
     </row>
     <row r="631" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="135">
-        <v>31042152</v>
+      <c r="A631" s="131">
+        <v>27698004</v>
       </c>
       <c r="B631" s="107" t="s">
         <v>3810</v>
@@ -56108,24 +56281,24 @@
         <v>3758</v>
       </c>
       <c r="F631" s="132" t="s">
-        <v>3794</v>
+        <v>3769</v>
       </c>
       <c r="G631" s="132" t="s">
-        <v>1351</v>
+        <v>2130</v>
       </c>
       <c r="I631" s="132" t="s">
         <v>42</v>
       </c>
       <c r="J631" s="132">
-        <v>2964489603</v>
+        <v>2964409742</v>
       </c>
       <c r="L631" s="132" t="s">
-        <v>3761</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="632" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="136">
-        <v>24102316</v>
+        <v>40829020</v>
       </c>
       <c r="B632" s="107" t="s">
         <v>3810</v>
@@ -56137,24 +56310,24 @@
         <v>3758</v>
       </c>
       <c r="F632" s="132" t="s">
-        <v>3795</v>
+        <v>3367</v>
       </c>
       <c r="G632" s="132" t="s">
-        <v>3762</v>
+        <v>3798</v>
       </c>
       <c r="I632" s="132" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J632" s="132">
-        <v>2901529818</v>
+        <v>2964574966</v>
       </c>
       <c r="L632" s="132" t="s">
-        <v>3763</v>
+        <v>3771</v>
       </c>
     </row>
     <row r="633" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="131">
-        <v>29567935</v>
+        <v>31812431</v>
       </c>
       <c r="B633" s="107" t="s">
         <v>3810</v>
@@ -56163,27 +56336,27 @@
         <v>2025</v>
       </c>
       <c r="E633" s="132" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="F633" s="132" t="s">
-        <v>3796</v>
+        <v>3772</v>
       </c>
       <c r="G633" s="132" t="s">
-        <v>3764</v>
+        <v>3799</v>
       </c>
       <c r="I633" s="132" t="s">
         <v>42</v>
       </c>
       <c r="J633" s="132">
-        <v>2964603542</v>
+        <v>2964410821</v>
       </c>
       <c r="K633" s="132" t="s">
-        <v>3765</v>
+        <v>3773</v>
       </c>
     </row>
     <row r="634" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="136">
-        <v>32554990</v>
+      <c r="A634" s="133">
+        <v>27580473</v>
       </c>
       <c r="B634" s="107" t="s">
         <v>3810</v>
@@ -56195,24 +56368,24 @@
         <v>3758</v>
       </c>
       <c r="F634" s="132" t="s">
-        <v>3766</v>
+        <v>3626</v>
       </c>
       <c r="G634" s="132" t="s">
-        <v>1992</v>
+        <v>3800</v>
       </c>
       <c r="I634" s="132" t="s">
-        <v>20</v>
+        <v>3119</v>
       </c>
       <c r="J634" s="132">
-        <v>2901482666</v>
+        <v>2901419889</v>
       </c>
       <c r="L634" s="132" t="s">
-        <v>3767</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="635" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="131">
-        <v>31160762</v>
+      <c r="A635" s="138">
+        <v>34674754</v>
       </c>
       <c r="B635" s="107" t="s">
         <v>3810</v>
@@ -56224,24 +56397,24 @@
         <v>3758</v>
       </c>
       <c r="F635" s="132" t="s">
-        <v>3797</v>
+        <v>3775</v>
       </c>
       <c r="G635" s="132" t="s">
-        <v>2016</v>
+        <v>3801</v>
       </c>
       <c r="I635" s="132" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J635" s="132">
-        <v>2964527327</v>
+        <v>2901409441</v>
       </c>
       <c r="L635" s="132" t="s">
-        <v>3768</v>
+        <v>3776</v>
       </c>
     </row>
     <row r="636" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="137">
-        <v>32117408</v>
+      <c r="A636" s="106">
+        <v>11</v>
       </c>
       <c r="B636" s="107" t="s">
         <v>3810</v>
@@ -56250,27 +56423,27 @@
         <v>2025</v>
       </c>
       <c r="E636" s="132" t="s">
-        <v>3760</v>
+        <v>3758</v>
       </c>
       <c r="F636" s="132" t="s">
-        <v>3791</v>
+        <v>3431</v>
       </c>
       <c r="G636" s="132" t="s">
-        <v>3808</v>
+        <v>3802</v>
       </c>
       <c r="I636" s="132" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J636" s="132">
-        <v>2964471844</v>
-      </c>
-      <c r="K636" s="132" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="637" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="131">
-        <v>27698004</v>
+        <v>2901657000</v>
+      </c>
+      <c r="L636" s="132" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="136">
+        <v>28804760</v>
       </c>
       <c r="B637" s="107" t="s">
         <v>3810</v>
@@ -56279,27 +56452,27 @@
         <v>2025</v>
       </c>
       <c r="E637" s="132" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="F637" s="132" t="s">
-        <v>3769</v>
+        <v>3778</v>
       </c>
       <c r="G637" s="132" t="s">
-        <v>2130</v>
+        <v>2590</v>
       </c>
       <c r="I637" s="132" t="s">
-        <v>42</v>
-      </c>
-      <c r="J637" s="132">
-        <v>2964409742</v>
-      </c>
-      <c r="L637" s="132" t="s">
-        <v>3770</v>
+        <v>20</v>
+      </c>
+      <c r="J637" s="132" t="s">
+        <v>3779</v>
+      </c>
+      <c r="K637" s="132" t="s">
+        <v>3408</v>
       </c>
     </row>
     <row r="638" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="136">
-        <v>40829020</v>
+      <c r="A638" s="133">
+        <v>31580241</v>
       </c>
       <c r="B638" s="107" t="s">
         <v>3810</v>
@@ -56311,24 +56484,24 @@
         <v>3758</v>
       </c>
       <c r="F638" s="132" t="s">
-        <v>3367</v>
+        <v>3804</v>
       </c>
       <c r="G638" s="132" t="s">
-        <v>3798</v>
+        <v>3803</v>
       </c>
       <c r="I638" s="132" t="s">
-        <v>42</v>
+        <v>3119</v>
       </c>
       <c r="J638" s="132">
-        <v>2964574966</v>
+        <v>2964472075</v>
       </c>
       <c r="L638" s="132" t="s">
-        <v>3771</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="639" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="131">
-        <v>31812431</v>
+      <c r="A639" s="133">
+        <v>31985017</v>
       </c>
       <c r="B639" s="107" t="s">
         <v>3810</v>
@@ -56340,24 +56513,24 @@
         <v>3758</v>
       </c>
       <c r="F639" s="132" t="s">
-        <v>3772</v>
+        <v>3805</v>
       </c>
       <c r="G639" s="132" t="s">
-        <v>3799</v>
+        <v>3781</v>
       </c>
       <c r="I639" s="132" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J639" s="132">
-        <v>2964410821</v>
-      </c>
-      <c r="K639" s="132" t="s">
-        <v>3773</v>
+        <v>2901537662</v>
+      </c>
+      <c r="L639" s="132" t="s">
+        <v>3782</v>
       </c>
     </row>
     <row r="640" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="133">
-        <v>27580473</v>
+      <c r="A640" s="131">
+        <v>25282855</v>
       </c>
       <c r="B640" s="107" t="s">
         <v>3810</v>
@@ -56369,24 +56542,24 @@
         <v>3758</v>
       </c>
       <c r="F640" s="132" t="s">
-        <v>3626</v>
+        <v>3806</v>
       </c>
       <c r="G640" s="132" t="s">
-        <v>3800</v>
+        <v>2815</v>
       </c>
       <c r="I640" s="132" t="s">
-        <v>3119</v>
+        <v>20</v>
       </c>
       <c r="J640" s="132">
-        <v>2901419889</v>
+        <v>2901602329</v>
       </c>
       <c r="L640" s="132" t="s">
-        <v>3774</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="641" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="138">
-        <v>34674754</v>
+      <c r="A641" s="131">
+        <v>22774543</v>
       </c>
       <c r="B641" s="107" t="s">
         <v>3810</v>
@@ -56398,24 +56571,24 @@
         <v>3758</v>
       </c>
       <c r="F641" s="132" t="s">
-        <v>3775</v>
+        <v>3784</v>
       </c>
       <c r="G641" s="132" t="s">
-        <v>3801</v>
+        <v>2833</v>
       </c>
       <c r="I641" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="J641" s="132">
-        <v>2901409441</v>
+      <c r="J641" s="132" t="s">
+        <v>3785</v>
       </c>
       <c r="L641" s="132" t="s">
-        <v>3776</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="642" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="106">
-        <v>11</v>
+      <c r="A642" s="134" t="s">
+        <v>3654</v>
       </c>
       <c r="B642" s="107" t="s">
         <v>3810</v>
@@ -56427,24 +56600,24 @@
         <v>3758</v>
       </c>
       <c r="F642" s="132" t="s">
-        <v>3431</v>
+        <v>3653</v>
       </c>
       <c r="G642" s="132" t="s">
-        <v>3802</v>
+        <v>3740</v>
       </c>
       <c r="I642" s="132" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J642" s="132">
-        <v>2901657000</v>
+        <v>2964543359</v>
       </c>
       <c r="L642" s="132" t="s">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="643" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A643" s="136">
-        <v>28804760</v>
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="138">
+        <v>17561233</v>
       </c>
       <c r="B643" s="107" t="s">
         <v>3810</v>
@@ -56456,24 +56629,24 @@
         <v>3760</v>
       </c>
       <c r="F643" s="132" t="s">
-        <v>3778</v>
+        <v>3807</v>
       </c>
       <c r="G643" s="132" t="s">
-        <v>2590</v>
+        <v>3008</v>
       </c>
       <c r="I643" s="132" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J643" s="132" t="s">
-        <v>3779</v>
-      </c>
-      <c r="K643" s="132" t="s">
-        <v>3408</v>
+        <v>3786</v>
+      </c>
+      <c r="L643" s="132" t="s">
+        <v>3787</v>
       </c>
     </row>
     <row r="644" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="133">
-        <v>31580241</v>
+      <c r="A644" s="131">
+        <v>39256615</v>
       </c>
       <c r="B644" s="107" t="s">
         <v>3810</v>
@@ -56482,201 +56655,201 @@
         <v>2025</v>
       </c>
       <c r="E644" s="132" t="s">
-        <v>3758</v>
+        <v>3760</v>
       </c>
       <c r="F644" s="132" t="s">
-        <v>3804</v>
+        <v>3788</v>
       </c>
       <c r="G644" s="132" t="s">
-        <v>3803</v>
+        <v>3027</v>
       </c>
       <c r="I644" s="132" t="s">
-        <v>3119</v>
-      </c>
-      <c r="J644" s="132">
-        <v>2964472075</v>
+        <v>20</v>
+      </c>
+      <c r="J644" s="132" t="s">
+        <v>3789</v>
       </c>
       <c r="L644" s="132" t="s">
-        <v>3780</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="645" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="133">
-        <v>31985017</v>
+      <c r="A645" s="134" t="s">
+        <v>3705</v>
       </c>
       <c r="B645" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C645" s="107">
         <v>2025</v>
       </c>
-      <c r="E645" s="132" t="s">
-        <v>3758</v>
-      </c>
-      <c r="F645" s="132" t="s">
-        <v>3805</v>
-      </c>
-      <c r="G645" s="132" t="s">
-        <v>3781</v>
-      </c>
-      <c r="I645" s="132" t="s">
+      <c r="F645" s="139" t="s">
+        <v>3704</v>
+      </c>
+      <c r="G645" s="139" t="s">
+        <v>739</v>
+      </c>
+      <c r="H645" s="113" t="s">
+        <v>3708</v>
+      </c>
+      <c r="I645" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J645" s="132">
-        <v>2901537662</v>
-      </c>
-      <c r="L645" s="132" t="s">
-        <v>3782</v>
+      <c r="J645" s="134" t="s">
+        <v>3707</v>
+      </c>
+      <c r="L645" s="113" t="s">
+        <v>3706</v>
       </c>
     </row>
     <row r="646" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="131">
-        <v>25282855</v>
+      <c r="A646" s="134" t="s">
+        <v>3112</v>
       </c>
       <c r="B646" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C646" s="107">
         <v>2025</v>
       </c>
-      <c r="E646" s="132" t="s">
-        <v>3758</v>
-      </c>
-      <c r="F646" s="132" t="s">
-        <v>3806</v>
-      </c>
-      <c r="G646" s="132" t="s">
-        <v>2815</v>
-      </c>
-      <c r="I646" s="132" t="s">
+      <c r="F646" s="139" t="s">
+        <v>3751</v>
+      </c>
+      <c r="G646" s="139" t="s">
+        <v>803</v>
+      </c>
+      <c r="H646" s="113" t="s">
+        <v>3730</v>
+      </c>
+      <c r="I646" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J646" s="132">
-        <v>2901602329</v>
-      </c>
-      <c r="L646" s="132" t="s">
-        <v>3783</v>
+      <c r="J646" s="113" t="s">
+        <v>3114</v>
+      </c>
+      <c r="L646" s="113" t="s">
+        <v>3113</v>
       </c>
     </row>
     <row r="647" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="131">
-        <v>22774543</v>
+      <c r="A647" s="134" t="s">
+        <v>3640</v>
       </c>
       <c r="B647" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C647" s="107">
         <v>2025</v>
       </c>
-      <c r="E647" s="132" t="s">
-        <v>3758</v>
-      </c>
-      <c r="F647" s="132" t="s">
-        <v>3784</v>
-      </c>
-      <c r="G647" s="132" t="s">
-        <v>2833</v>
-      </c>
-      <c r="I647" s="132" t="s">
-        <v>20</v>
-      </c>
-      <c r="J647" s="132" t="s">
-        <v>3785</v>
-      </c>
-      <c r="L647" s="132" t="s">
-        <v>2835</v>
+      <c r="F647" s="139" t="s">
+        <v>3639</v>
+      </c>
+      <c r="G647" s="139" t="s">
+        <v>820</v>
+      </c>
+      <c r="H647" s="113" t="s">
+        <v>3643</v>
+      </c>
+      <c r="I647" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="J647" s="134" t="s">
+        <v>3642</v>
+      </c>
+      <c r="L647" s="113" t="s">
+        <v>3641</v>
       </c>
     </row>
     <row r="648" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="134" t="s">
-        <v>3654</v>
+        <v>3116</v>
       </c>
       <c r="B648" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C648" s="107">
         <v>2025</v>
       </c>
-      <c r="E648" s="132" t="s">
-        <v>3758</v>
-      </c>
-      <c r="F648" s="132" t="s">
-        <v>3653</v>
-      </c>
-      <c r="G648" s="132" t="s">
-        <v>3740</v>
-      </c>
-      <c r="I648" s="132" t="s">
-        <v>42</v>
-      </c>
-      <c r="J648" s="132">
-        <v>2964543359</v>
-      </c>
-      <c r="L648" s="132" t="s">
-        <v>3655</v>
+      <c r="F648" s="139" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G648" s="139" t="s">
+        <v>3546</v>
+      </c>
+      <c r="H648" s="113" t="s">
+        <v>3697</v>
+      </c>
+      <c r="I648" s="113" t="s">
+        <v>3119</v>
+      </c>
+      <c r="J648" s="113" t="s">
+        <v>3118</v>
+      </c>
+      <c r="L648" s="113" t="s">
+        <v>3117</v>
       </c>
     </row>
     <row r="649" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="138">
-        <v>17561233</v>
+      <c r="A649" s="134" t="s">
+        <v>3123</v>
       </c>
       <c r="B649" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C649" s="107">
         <v>2025</v>
       </c>
-      <c r="E649" s="132" t="s">
-        <v>3760</v>
-      </c>
-      <c r="F649" s="132" t="s">
-        <v>3807</v>
-      </c>
-      <c r="G649" s="132" t="s">
-        <v>3008</v>
-      </c>
-      <c r="I649" s="132" t="s">
+      <c r="F649" s="139" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G649" s="139" t="s">
+        <v>955</v>
+      </c>
+      <c r="H649" s="113" t="s">
+        <v>3736</v>
+      </c>
+      <c r="I649" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="J649" s="132" t="s">
-        <v>3786</v>
-      </c>
-      <c r="L649" s="132" t="s">
-        <v>3787</v>
+      <c r="J649" s="134" t="s">
+        <v>3124</v>
+      </c>
+      <c r="L649" s="113" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="650" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="131">
-        <v>39256615</v>
+      <c r="A650" s="134" t="s">
+        <v>3631</v>
       </c>
       <c r="B650" s="107" t="s">
-        <v>3810</v>
+        <v>3756</v>
       </c>
       <c r="C650" s="107">
         <v>2025</v>
       </c>
-      <c r="E650" s="132" t="s">
-        <v>3760</v>
-      </c>
-      <c r="F650" s="132" t="s">
-        <v>3788</v>
-      </c>
-      <c r="G650" s="132" t="s">
-        <v>3027</v>
-      </c>
-      <c r="I650" s="132" t="s">
+      <c r="F650" s="139" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G650" s="139" t="s">
+        <v>3737</v>
+      </c>
+      <c r="H650" s="113" t="s">
+        <v>3634</v>
+      </c>
+      <c r="I650" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J650" s="132" t="s">
-        <v>3789</v>
-      </c>
-      <c r="L650" s="132" t="s">
-        <v>3790</v>
+      <c r="J650" s="134" t="s">
+        <v>3633</v>
+      </c>
+      <c r="L650" s="140" t="s">
+        <v>3754</v>
       </c>
     </row>
     <row r="651" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="134" t="s">
-        <v>3705</v>
+        <v>3636</v>
       </c>
       <c r="B651" s="107" t="s">
         <v>3756</v>
@@ -56685,27 +56858,27 @@
         <v>2025</v>
       </c>
       <c r="F651" s="139" t="s">
-        <v>3704</v>
+        <v>3635</v>
       </c>
       <c r="G651" s="139" t="s">
-        <v>739</v>
+        <v>1033</v>
       </c>
       <c r="H651" s="113" t="s">
-        <v>3708</v>
+        <v>3638</v>
       </c>
       <c r="I651" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J651" s="134" t="s">
-        <v>3707</v>
+        <v>3637</v>
       </c>
       <c r="L651" s="113" t="s">
-        <v>3706</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="652" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="134" t="s">
-        <v>3112</v>
+        <v>3699</v>
       </c>
       <c r="B652" s="107" t="s">
         <v>3756</v>
@@ -56714,27 +56887,27 @@
         <v>2025</v>
       </c>
       <c r="F652" s="139" t="s">
-        <v>3751</v>
+        <v>3698</v>
       </c>
       <c r="G652" s="139" t="s">
-        <v>803</v>
+        <v>3747</v>
       </c>
       <c r="H652" s="113" t="s">
-        <v>3730</v>
+        <v>3702</v>
       </c>
       <c r="I652" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J652" s="113" t="s">
-        <v>3114</v>
+        <v>3119</v>
+      </c>
+      <c r="J652" s="134" t="s">
+        <v>3701</v>
       </c>
       <c r="L652" s="113" t="s">
-        <v>3113</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="653" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="134" t="s">
-        <v>3640</v>
+        <v>3134</v>
       </c>
       <c r="B653" s="107" t="s">
         <v>3756</v>
@@ -56743,27 +56916,27 @@
         <v>2025</v>
       </c>
       <c r="F653" s="139" t="s">
-        <v>3639</v>
+        <v>3133</v>
       </c>
       <c r="G653" s="139" t="s">
-        <v>820</v>
+        <v>3480</v>
       </c>
       <c r="H653" s="113" t="s">
-        <v>3643</v>
+        <v>3712</v>
       </c>
       <c r="I653" s="113" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J653" s="134" t="s">
-        <v>3642</v>
+        <v>3136</v>
       </c>
       <c r="L653" s="113" t="s">
-        <v>3641</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="654" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="134" t="s">
-        <v>3116</v>
+        <v>3714</v>
       </c>
       <c r="B654" s="107" t="s">
         <v>3756</v>
@@ -56772,27 +56945,27 @@
         <v>2025</v>
       </c>
       <c r="F654" s="139" t="s">
-        <v>3115</v>
+        <v>3713</v>
       </c>
       <c r="G654" s="139" t="s">
-        <v>3546</v>
+        <v>3750</v>
       </c>
       <c r="H654" s="113" t="s">
-        <v>3697</v>
+        <v>3717</v>
       </c>
       <c r="I654" s="113" t="s">
-        <v>3119</v>
-      </c>
-      <c r="J654" s="113" t="s">
-        <v>3118</v>
+        <v>20</v>
+      </c>
+      <c r="J654" s="134" t="s">
+        <v>3716</v>
       </c>
       <c r="L654" s="113" t="s">
-        <v>3117</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="655" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="134" t="s">
-        <v>3123</v>
+        <v>3138</v>
       </c>
       <c r="B655" s="107" t="s">
         <v>3756</v>
@@ -56801,27 +56974,27 @@
         <v>2025</v>
       </c>
       <c r="F655" s="139" t="s">
-        <v>3753</v>
+        <v>3137</v>
       </c>
       <c r="G655" s="139" t="s">
-        <v>955</v>
+        <v>3485</v>
       </c>
       <c r="H655" s="113" t="s">
-        <v>3736</v>
+        <v>3703</v>
       </c>
       <c r="I655" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="J655" s="134" t="s">
-        <v>3124</v>
+        <v>20</v>
+      </c>
+      <c r="J655" s="113" t="s">
+        <v>3139</v>
       </c>
       <c r="L655" s="113" t="s">
-        <v>301</v>
+        <v>410</v>
       </c>
     </row>
     <row r="656" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="134" t="s">
-        <v>3631</v>
+        <v>3141</v>
       </c>
       <c r="B656" s="107" t="s">
         <v>3756</v>
@@ -56830,27 +57003,27 @@
         <v>2025</v>
       </c>
       <c r="F656" s="139" t="s">
-        <v>3630</v>
+        <v>3140</v>
       </c>
       <c r="G656" s="139" t="s">
-        <v>3737</v>
+        <v>3549</v>
       </c>
       <c r="H656" s="113" t="s">
-        <v>3634</v>
+        <v>3690</v>
       </c>
       <c r="I656" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J656" s="134" t="s">
-        <v>3633</v>
-      </c>
-      <c r="L656" s="140" t="s">
-        <v>3754</v>
+        <v>3143</v>
+      </c>
+      <c r="L656" s="113" t="s">
+        <v>3142</v>
       </c>
     </row>
     <row r="657" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="134" t="s">
-        <v>3636</v>
+        <v>3664</v>
       </c>
       <c r="B657" s="107" t="s">
         <v>3756</v>
@@ -56859,27 +57032,27 @@
         <v>2025</v>
       </c>
       <c r="F657" s="139" t="s">
-        <v>3635</v>
+        <v>3663</v>
       </c>
       <c r="G657" s="139" t="s">
-        <v>1033</v>
+        <v>1480</v>
       </c>
       <c r="H657" s="113" t="s">
-        <v>3638</v>
+        <v>3667</v>
       </c>
       <c r="I657" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J657" s="134" t="s">
-        <v>3637</v>
+        <v>3666</v>
       </c>
       <c r="L657" s="113" t="s">
-        <v>1035</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="658" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="134" t="s">
-        <v>3699</v>
+        <v>3650</v>
       </c>
       <c r="B658" s="107" t="s">
         <v>3756</v>
@@ -56888,27 +57061,27 @@
         <v>2025</v>
       </c>
       <c r="F658" s="139" t="s">
-        <v>3698</v>
+        <v>3649</v>
       </c>
       <c r="G658" s="139" t="s">
-        <v>3747</v>
+        <v>3739</v>
       </c>
       <c r="H658" s="113" t="s">
-        <v>3702</v>
+        <v>3652</v>
       </c>
       <c r="I658" s="113" t="s">
-        <v>3119</v>
+        <v>42</v>
       </c>
       <c r="J658" s="134" t="s">
-        <v>3701</v>
+        <v>3651</v>
       </c>
       <c r="L658" s="113" t="s">
-        <v>3700</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="659" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="134" t="s">
-        <v>3134</v>
+        <v>3150</v>
       </c>
       <c r="B659" s="107" t="s">
         <v>3756</v>
@@ -56917,27 +57090,27 @@
         <v>2025</v>
       </c>
       <c r="F659" s="139" t="s">
-        <v>3133</v>
+        <v>3149</v>
       </c>
       <c r="G659" s="139" t="s">
-        <v>3480</v>
+        <v>3550</v>
       </c>
       <c r="H659" s="113" t="s">
-        <v>3712</v>
+        <v>550</v>
       </c>
       <c r="I659" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J659" s="134" t="s">
-        <v>3136</v>
+        <v>3152</v>
       </c>
       <c r="L659" s="113" t="s">
-        <v>3135</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="660" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="134" t="s">
-        <v>3714</v>
+        <v>3669</v>
       </c>
       <c r="B660" s="107" t="s">
         <v>3756</v>
@@ -56946,27 +57119,27 @@
         <v>2025</v>
       </c>
       <c r="F660" s="139" t="s">
-        <v>3713</v>
+        <v>3668</v>
       </c>
       <c r="G660" s="139" t="s">
-        <v>3750</v>
+        <v>1883</v>
       </c>
       <c r="H660" s="113" t="s">
-        <v>3717</v>
+        <v>3672</v>
       </c>
       <c r="I660" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J660" s="134" t="s">
-        <v>3716</v>
+        <v>3671</v>
       </c>
       <c r="L660" s="113" t="s">
-        <v>3715</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="661" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="134" t="s">
-        <v>3138</v>
+        <v>3659</v>
       </c>
       <c r="B661" s="107" t="s">
         <v>3756</v>
@@ -56975,27 +57148,27 @@
         <v>2025</v>
       </c>
       <c r="F661" s="139" t="s">
-        <v>3137</v>
+        <v>3742</v>
       </c>
       <c r="G661" s="139" t="s">
-        <v>3485</v>
+        <v>3741</v>
       </c>
       <c r="H661" s="113" t="s">
-        <v>3703</v>
+        <v>3662</v>
       </c>
       <c r="I661" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J661" s="113" t="s">
-        <v>3139</v>
+        <v>42</v>
+      </c>
+      <c r="J661" s="134" t="s">
+        <v>3661</v>
       </c>
       <c r="L661" s="113" t="s">
-        <v>410</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="662" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="134" t="s">
-        <v>3141</v>
+        <v>3156</v>
       </c>
       <c r="B662" s="107" t="s">
         <v>3756</v>
@@ -57004,27 +57177,27 @@
         <v>2025</v>
       </c>
       <c r="F662" s="139" t="s">
-        <v>3140</v>
+        <v>3155</v>
       </c>
       <c r="G662" s="139" t="s">
-        <v>3549</v>
+        <v>1992</v>
       </c>
       <c r="H662" s="113" t="s">
-        <v>3690</v>
+        <v>3683</v>
       </c>
       <c r="I662" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J662" s="134" t="s">
-        <v>3143</v>
+        <v>3158</v>
       </c>
       <c r="L662" s="113" t="s">
-        <v>3142</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="663" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="134" t="s">
-        <v>3664</v>
+      <c r="A663" s="113" t="s">
+        <v>3725</v>
       </c>
       <c r="B663" s="107" t="s">
         <v>3756</v>
@@ -57033,27 +57206,27 @@
         <v>2025</v>
       </c>
       <c r="F663" s="139" t="s">
-        <v>3663</v>
+        <v>3724</v>
       </c>
       <c r="G663" s="139" t="s">
-        <v>1480</v>
+        <v>1992</v>
       </c>
       <c r="H663" s="113" t="s">
-        <v>3667</v>
+        <v>3728</v>
       </c>
       <c r="I663" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J663" s="134" t="s">
-        <v>3666</v>
+      <c r="J663" s="113" t="s">
+        <v>3727</v>
       </c>
       <c r="L663" s="113" t="s">
-        <v>3665</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="664" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="134" t="s">
-        <v>3650</v>
+        <v>3163</v>
       </c>
       <c r="B664" s="107" t="s">
         <v>3756</v>
@@ -57062,27 +57235,27 @@
         <v>2025</v>
       </c>
       <c r="F664" s="139" t="s">
-        <v>3649</v>
+        <v>3162</v>
       </c>
       <c r="G664" s="139" t="s">
-        <v>3739</v>
+        <v>3553</v>
       </c>
       <c r="H664" s="113" t="s">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="I664" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="J664" s="134" t="s">
-        <v>3651</v>
+        <v>20</v>
+      </c>
+      <c r="J664" s="113" t="s">
+        <v>3755</v>
       </c>
       <c r="L664" s="113" t="s">
-        <v>1509</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="665" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="134" t="s">
-        <v>3150</v>
+        <v>3720</v>
       </c>
       <c r="B665" s="107" t="s">
         <v>3756</v>
@@ -57091,27 +57264,27 @@
         <v>2025</v>
       </c>
       <c r="F665" s="139" t="s">
-        <v>3149</v>
+        <v>3719</v>
       </c>
       <c r="G665" s="139" t="s">
-        <v>3550</v>
+        <v>3718</v>
       </c>
       <c r="H665" s="113" t="s">
-        <v>550</v>
+        <v>3723</v>
       </c>
       <c r="I665" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J665" s="134" t="s">
-        <v>3152</v>
+        <v>3722</v>
       </c>
       <c r="L665" s="113" t="s">
-        <v>3151</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="666" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="134" t="s">
-        <v>3669</v>
+        <v>3679</v>
       </c>
       <c r="B666" s="107" t="s">
         <v>3756</v>
@@ -57120,27 +57293,27 @@
         <v>2025</v>
       </c>
       <c r="F666" s="139" t="s">
-        <v>3668</v>
+        <v>3678</v>
       </c>
       <c r="G666" s="139" t="s">
-        <v>1883</v>
+        <v>3743</v>
       </c>
       <c r="H666" s="113" t="s">
-        <v>3672</v>
+        <v>3682</v>
       </c>
       <c r="I666" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J666" s="134" t="s">
-        <v>3671</v>
+        <v>3681</v>
       </c>
       <c r="L666" s="113" t="s">
-        <v>3670</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="667" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="134" t="s">
-        <v>3659</v>
+        <v>3686</v>
       </c>
       <c r="B667" s="107" t="s">
         <v>3756</v>
@@ -57149,27 +57322,27 @@
         <v>2025</v>
       </c>
       <c r="F667" s="139" t="s">
-        <v>3742</v>
+        <v>3685</v>
       </c>
       <c r="G667" s="139" t="s">
-        <v>3741</v>
+        <v>3744</v>
       </c>
       <c r="H667" s="113" t="s">
-        <v>3662</v>
+        <v>3689</v>
       </c>
       <c r="I667" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="J667" s="134" t="s">
-        <v>3661</v>
+      <c r="J667" s="113" t="s">
+        <v>3688</v>
       </c>
       <c r="L667" s="113" t="s">
-        <v>3660</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="668" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="134" t="s">
-        <v>3156</v>
+        <v>3709</v>
       </c>
       <c r="B668" s="107" t="s">
         <v>3756</v>
@@ -57178,27 +57351,27 @@
         <v>2025</v>
       </c>
       <c r="F668" s="139" t="s">
-        <v>3155</v>
+        <v>3749</v>
       </c>
       <c r="G668" s="139" t="s">
-        <v>1992</v>
+        <v>3748</v>
       </c>
       <c r="H668" s="113" t="s">
-        <v>3683</v>
+        <v>550</v>
       </c>
       <c r="I668" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J668" s="134" t="s">
-        <v>3158</v>
+      <c r="J668" s="113" t="s">
+        <v>3711</v>
       </c>
       <c r="L668" s="113" t="s">
-        <v>3157</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="669" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="113" t="s">
-        <v>3725</v>
+      <c r="A669" s="134" t="s">
+        <v>3692</v>
       </c>
       <c r="B669" s="107" t="s">
         <v>3756</v>
@@ -57207,27 +57380,27 @@
         <v>2025</v>
       </c>
       <c r="F669" s="139" t="s">
-        <v>3724</v>
+        <v>3691</v>
       </c>
       <c r="G669" s="139" t="s">
-        <v>1992</v>
+        <v>3745</v>
       </c>
       <c r="H669" s="113" t="s">
-        <v>3728</v>
+        <v>3695</v>
       </c>
       <c r="I669" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J669" s="113" t="s">
-        <v>3727</v>
+        <v>42</v>
+      </c>
+      <c r="J669" s="134" t="s">
+        <v>3694</v>
       </c>
       <c r="L669" s="113" t="s">
-        <v>3726</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="134" t="s">
-        <v>3163</v>
+        <v>3174</v>
       </c>
       <c r="B670" s="107" t="s">
         <v>3756</v>
@@ -57236,27 +57409,27 @@
         <v>2025</v>
       </c>
       <c r="F670" s="139" t="s">
-        <v>3162</v>
+        <v>3746</v>
       </c>
       <c r="G670" s="139" t="s">
-        <v>3553</v>
+        <v>2458</v>
       </c>
       <c r="H670" s="113" t="s">
-        <v>3658</v>
+        <v>3696</v>
       </c>
       <c r="I670" s="113" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J670" s="113" t="s">
-        <v>3755</v>
+        <v>3176</v>
       </c>
       <c r="L670" s="113" t="s">
-        <v>3164</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="134" t="s">
-        <v>3720</v>
+        <v>3645</v>
       </c>
       <c r="B671" s="107" t="s">
         <v>3756</v>
@@ -57265,27 +57438,27 @@
         <v>2025</v>
       </c>
       <c r="F671" s="139" t="s">
-        <v>3719</v>
+        <v>3644</v>
       </c>
       <c r="G671" s="139" t="s">
-        <v>3718</v>
+        <v>3738</v>
       </c>
       <c r="H671" s="113" t="s">
-        <v>3723</v>
+        <v>3648</v>
       </c>
       <c r="I671" s="113" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J671" s="134" t="s">
-        <v>3722</v>
+        <v>3647</v>
       </c>
       <c r="L671" s="113" t="s">
-        <v>3721</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="134" t="s">
-        <v>3679</v>
+        <v>3732</v>
       </c>
       <c r="B672" s="107" t="s">
         <v>3756</v>
@@ -57294,27 +57467,27 @@
         <v>2025</v>
       </c>
       <c r="F672" s="139" t="s">
-        <v>3678</v>
+        <v>3731</v>
       </c>
       <c r="G672" s="139" t="s">
-        <v>3743</v>
+        <v>3752</v>
       </c>
       <c r="H672" s="113" t="s">
-        <v>3682</v>
+        <v>3735</v>
       </c>
       <c r="I672" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J672" s="134" t="s">
-        <v>3681</v>
+        <v>3734</v>
       </c>
       <c r="L672" s="113" t="s">
-        <v>3680</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="673" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="134" t="s">
-        <v>3686</v>
+        <v>3183</v>
       </c>
       <c r="B673" s="107" t="s">
         <v>3756</v>
@@ -57323,27 +57496,27 @@
         <v>2025</v>
       </c>
       <c r="F673" s="139" t="s">
-        <v>3685</v>
+        <v>3182</v>
       </c>
       <c r="G673" s="139" t="s">
-        <v>3744</v>
+        <v>3555</v>
       </c>
       <c r="H673" s="113" t="s">
-        <v>3689</v>
+        <v>550</v>
       </c>
       <c r="I673" s="113" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J673" s="113" t="s">
-        <v>3688</v>
+        <v>3185</v>
       </c>
       <c r="L673" s="113" t="s">
-        <v>3687</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="674" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="134" t="s">
-        <v>3709</v>
+        <v>3674</v>
       </c>
       <c r="B674" s="107" t="s">
         <v>3756</v>
@@ -57352,27 +57525,27 @@
         <v>2025</v>
       </c>
       <c r="F674" s="139" t="s">
-        <v>3749</v>
+        <v>3673</v>
       </c>
       <c r="G674" s="139" t="s">
-        <v>3748</v>
+        <v>2824</v>
       </c>
       <c r="H674" s="113" t="s">
-        <v>550</v>
+        <v>3677</v>
       </c>
       <c r="I674" s="113" t="s">
         <v>20</v>
       </c>
       <c r="J674" s="113" t="s">
-        <v>3711</v>
+        <v>3676</v>
       </c>
       <c r="L674" s="113" t="s">
-        <v>3710</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="675" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="134" t="s">
-        <v>3692</v>
+      <c r="A675" s="113" t="s">
+        <v>3190</v>
       </c>
       <c r="B675" s="107" t="s">
         <v>3756</v>
@@ -57381,27 +57554,27 @@
         <v>2025</v>
       </c>
       <c r="F675" s="139" t="s">
-        <v>3691</v>
+        <v>151</v>
       </c>
       <c r="G675" s="139" t="s">
-        <v>3745</v>
+        <v>3557</v>
       </c>
       <c r="H675" s="113" t="s">
-        <v>3695</v>
+        <v>3684</v>
       </c>
       <c r="I675" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="J675" s="134" t="s">
-        <v>3694</v>
+        <v>20</v>
+      </c>
+      <c r="J675" s="113" t="s">
+        <v>3191</v>
       </c>
       <c r="L675" s="113" t="s">
-        <v>3693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="676" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="134" t="s">
-        <v>3174</v>
+        <v>3654</v>
       </c>
       <c r="B676" s="107" t="s">
         <v>3756</v>
@@ -57410,27 +57583,27 @@
         <v>2025</v>
       </c>
       <c r="F676" s="139" t="s">
-        <v>3746</v>
+        <v>3653</v>
       </c>
       <c r="G676" s="139" t="s">
-        <v>2458</v>
+        <v>3740</v>
       </c>
       <c r="H676" s="113" t="s">
-        <v>3696</v>
+        <v>3657</v>
       </c>
       <c r="I676" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="J676" s="113" t="s">
-        <v>3176</v>
+      <c r="J676" s="134" t="s">
+        <v>3656</v>
       </c>
       <c r="L676" s="113" t="s">
-        <v>3175</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="677" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="134" t="s">
-        <v>3645</v>
+        <v>3196</v>
       </c>
       <c r="B677" s="107" t="s">
         <v>3756</v>
@@ -57439,214 +57612,33 @@
         <v>2025</v>
       </c>
       <c r="F677" s="139" t="s">
-        <v>3644</v>
+        <v>3195</v>
       </c>
       <c r="G677" s="139" t="s">
-        <v>3738</v>
+        <v>3558</v>
       </c>
       <c r="H677" s="113" t="s">
-        <v>3648</v>
+        <v>3729</v>
       </c>
       <c r="I677" s="113" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="J677" s="134" t="s">
-        <v>3647</v>
+        <v>3198</v>
       </c>
       <c r="L677" s="113" t="s">
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="678" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="134" t="s">
-        <v>3732</v>
-      </c>
-      <c r="B678" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C678" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F678" s="139" t="s">
-        <v>3731</v>
-      </c>
-      <c r="G678" s="139" t="s">
-        <v>3752</v>
-      </c>
-      <c r="H678" s="113" t="s">
-        <v>3735</v>
-      </c>
-      <c r="I678" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J678" s="134" t="s">
-        <v>3734</v>
-      </c>
-      <c r="L678" s="113" t="s">
-        <v>3733</v>
-      </c>
-    </row>
-    <row r="679" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="134" t="s">
-        <v>3183</v>
-      </c>
-      <c r="B679" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C679" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F679" s="139" t="s">
-        <v>3182</v>
-      </c>
-      <c r="G679" s="139" t="s">
-        <v>3555</v>
-      </c>
-      <c r="H679" s="113" t="s">
-        <v>550</v>
-      </c>
-      <c r="I679" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J679" s="113" t="s">
-        <v>3185</v>
-      </c>
-      <c r="L679" s="113" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="680" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="134" t="s">
-        <v>3674</v>
-      </c>
-      <c r="B680" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C680" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F680" s="139" t="s">
-        <v>3673</v>
-      </c>
-      <c r="G680" s="139" t="s">
-        <v>2824</v>
-      </c>
-      <c r="H680" s="113" t="s">
-        <v>3677</v>
-      </c>
-      <c r="I680" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J680" s="113" t="s">
-        <v>3676</v>
-      </c>
-      <c r="L680" s="113" t="s">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="681" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="113" t="s">
-        <v>3190</v>
-      </c>
-      <c r="B681" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C681" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F681" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G681" s="139" t="s">
-        <v>3557</v>
-      </c>
-      <c r="H681" s="113" t="s">
-        <v>3684</v>
-      </c>
-      <c r="I681" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J681" s="113" t="s">
-        <v>3191</v>
-      </c>
-      <c r="L681" s="113" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="682" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="134" t="s">
-        <v>3654</v>
-      </c>
-      <c r="B682" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C682" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F682" s="139" t="s">
-        <v>3653</v>
-      </c>
-      <c r="G682" s="139" t="s">
-        <v>3740</v>
-      </c>
-      <c r="H682" s="113" t="s">
-        <v>3657</v>
-      </c>
-      <c r="I682" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="J682" s="134" t="s">
-        <v>3656</v>
-      </c>
-      <c r="L682" s="113" t="s">
-        <v>3655</v>
-      </c>
-    </row>
-    <row r="683" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="134" t="s">
-        <v>3196</v>
-      </c>
-      <c r="B683" s="107" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C683" s="107">
-        <v>2025</v>
-      </c>
-      <c r="F683" s="139" t="s">
-        <v>3195</v>
-      </c>
-      <c r="G683" s="139" t="s">
-        <v>3558</v>
-      </c>
-      <c r="H683" s="113" t="s">
-        <v>3729</v>
-      </c>
-      <c r="I683" s="113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J683" s="134" t="s">
-        <v>3198</v>
-      </c>
-      <c r="L683" s="113" t="s">
         <v>3197</v>
       </c>
     </row>
-    <row r="694" spans="7:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G694" s="141"/>
-      <c r="H694" s="113"/>
-      <c r="I694" s="113"/>
-      <c r="J694" s="113"/>
-      <c r="L694" s="113"/>
+    <row r="688" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G688" s="141"/>
+      <c r="H688" s="113"/>
+      <c r="I688" s="113"/>
+      <c r="J688" s="113"/>
+      <c r="L688" s="113"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O620" xr:uid="{D800BA26-671B-4B74-B484-DDA3B7BFF925}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2005"/>
-        <filter val="2006"/>
-        <filter val="2007"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:O677" xr:uid="{D800BA26-671B-4B74-B484-DDA3B7BFF925}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O581">
       <sortCondition ref="G1:G484"/>
     </sortState>
@@ -57688,7 +57680,7 @@
     <hyperlink ref="L23" r:id="rId21" xr:uid="{94BCB572-7C24-40A6-92A8-B0A980CE647F}"/>
     <hyperlink ref="L53" r:id="rId22" display="mailto:dra.cavuto@gmail.com" xr:uid="{F33E7D2C-F84D-40C4-AF7B-4D78F4226ED9}"/>
     <hyperlink ref="L294" r:id="rId23" xr:uid="{8BCE02AE-5DDD-4C25-A21E-28A0AE51ABC3}"/>
-    <hyperlink ref="L656" r:id="rId24" xr:uid="{05B7095C-CAFF-4E94-99EC-B0F846871E92}"/>
+    <hyperlink ref="L650" r:id="rId24" xr:uid="{05B7095C-CAFF-4E94-99EC-B0F846871E92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId25"/>
